--- a/project/Data/project_program.xlsx
+++ b/project/Data/project_program.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ph\BigData\project\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC7B559-4E7E-40B8-8FB1-807C3EEF212B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22575" windowHeight="9885" tabRatio="500"/>
+    <workbookView xWindow="12900" yWindow="72" windowWidth="9816" windowHeight="11676" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
@@ -16,1148 +22,1160 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="379">
   <si>
+    <t>3월 한성백제박물관 문화시네마</t>
+  </si>
+  <si>
+    <t>가족뮤지컬 슈퍼클로젯</t>
+  </si>
+  <si>
+    <t>서울역사탐구교실 지도로 찾아가는 옛 서울</t>
+  </si>
+  <si>
+    <t>어른 3000원   청소년 1800원   어린이 1200원</t>
+  </si>
+  <si>
+    <t>뮤지컬 앨리스 스튜디오</t>
+  </si>
+  <si>
+    <t>VIP석 55000원 R석 44000원</t>
+  </si>
+  <si>
+    <t>전석 1만원 (할인율 상세페이지 참조)</t>
+  </si>
+  <si>
+    <t>40000원 (*재료비 10000원 별도)</t>
+  </si>
+  <si>
+    <t>만4세 이상</t>
+  </si>
+  <si>
+    <t xml:space="preserve">만 7세 이상 </t>
+  </si>
+  <si>
+    <t>6세 이상 어린이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울역사박물관대학 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">미취학아동 입장불가 </t>
+  </si>
+  <si>
+    <t>서울생활문화센터 서교</t>
+  </si>
+  <si>
+    <t>통의동 보안여관</t>
+  </si>
+  <si>
+    <t>StartDay</t>
+  </si>
+  <si>
+    <t>전석 20000원</t>
+  </si>
+  <si>
+    <t>전석 30000원</t>
+  </si>
+  <si>
+    <t>서울새활용플라자</t>
+  </si>
+  <si>
+    <t>김아름 피아노 독주회</t>
+  </si>
+  <si>
+    <t>만 7세 이상 입장</t>
+  </si>
+  <si>
+    <t>만 7세이상 입장가능</t>
+  </si>
+  <si>
+    <t>코리아나 화장박물관</t>
+  </si>
+  <si>
+    <t>PlaceName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전석 20000원 </t>
+  </si>
+  <si>
+    <t>신수정 피아노 독주회</t>
+  </si>
+  <si>
+    <t>종로구립 박노수미술관</t>
+  </si>
+  <si>
+    <t>서울생활문화센터 체부</t>
+  </si>
+  <si>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>이동욱 호른 독주회</t>
+  </si>
+  <si>
+    <t>테너 존노 리사이틀</t>
+  </si>
+  <si>
+    <t>미취학아동 입장불가</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>양혜순 비올라 독주회</t>
+  </si>
+  <si>
+    <t>만 13세 이상관람</t>
+  </si>
+  <si>
+    <t>톤픽쳐 토크콘서트</t>
+  </si>
+  <si>
+    <t>만 5세 이상 관람가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전석 20000원  </t>
+  </si>
+  <si>
+    <t>베이스 장영근 독창회</t>
+  </si>
+  <si>
+    <t>전석 10000원</t>
+  </si>
+  <si>
+    <t>12만원 (3개월)</t>
+  </si>
+  <si>
+    <t>임진영 피아노 독주회</t>
+  </si>
+  <si>
+    <t>8세이상 입장가능</t>
+  </si>
+  <si>
+    <t>미취학아동입장불가</t>
+  </si>
+  <si>
+    <t>노원문화예술회관</t>
+  </si>
+  <si>
+    <t>국립현대미술관 서울</t>
+  </si>
+  <si>
+    <t>라운지 프로젝트</t>
+  </si>
+  <si>
+    <t>서울시립 북서울미술관</t>
+  </si>
+  <si>
+    <t>서울시립남서울미술관</t>
+  </si>
+  <si>
+    <t>漆 아시아를 칠하다</t>
+  </si>
+  <si>
+    <t>경춘선숲길 갤러리</t>
+  </si>
+  <si>
+    <t>서리풀청년아트갤러리</t>
+  </si>
+  <si>
+    <t>갈산문화예술센터</t>
+  </si>
+  <si>
+    <t>은평문화예술회관</t>
+  </si>
+  <si>
+    <t>초등학생 이상 관람</t>
+  </si>
+  <si>
+    <t>피아노 앙상블 S</t>
+  </si>
+  <si>
+    <t>초등학생 3학년 이상</t>
+  </si>
+  <si>
+    <t>공평도시유적전시관</t>
+  </si>
+  <si>
+    <t>서울도시건축전시관</t>
+  </si>
+  <si>
+    <t>12세 이상 관람가</t>
+  </si>
+  <si>
+    <t>입장료 4000원</t>
+  </si>
+  <si>
+    <t>36개월 이상 관람</t>
+  </si>
+  <si>
+    <t>서울하수도과학관</t>
+  </si>
+  <si>
+    <t>무료 ※사전예약제</t>
+  </si>
+  <si>
+    <t>조선의 승려 장인</t>
+  </si>
+  <si>
+    <t>서울생활사박물관</t>
+  </si>
+  <si>
+    <t>서울상상나라 입장객</t>
+  </si>
+  <si>
+    <t>1919 필라델피아</t>
+  </si>
+  <si>
+    <t>8강좌 통합 30000원(꾸러미 미포함) 60000원(꾸러미 포함)</t>
+  </si>
+  <si>
+    <t>시민청 소리갤러리 전시 도시 도심心</t>
+  </si>
+  <si>
+    <t>권효진 귀국 피아노 독주회</t>
+  </si>
+  <si>
+    <t>트럼펫터 노민호의 봄의향연</t>
+  </si>
+  <si>
+    <t>초등 3~5학년 동반가족</t>
+  </si>
+  <si>
+    <t>초등학생 동반가족(앱활용)</t>
+  </si>
+  <si>
+    <t>ProgramNumber</t>
+  </si>
+  <si>
+    <t>초등 1~5학년 동반가족</t>
+  </si>
+  <si>
+    <t>TargetAudience</t>
+  </si>
+  <si>
+    <t>2022 트리오 바스 콘서트</t>
+  </si>
+  <si>
+    <t>서울풍물시장 전통문화체험관</t>
+  </si>
+  <si>
+    <t>장문영 바이올린 독주회</t>
+  </si>
+  <si>
+    <t>초등학생 동반 가족 누구나</t>
+  </si>
+  <si>
+    <t>만 7세 이상 관람 가능</t>
+  </si>
+  <si>
+    <t>소프라노 김지영 독창회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">만 7세 이상 관람 가능 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제 30기 중학생 인턴제 </t>
+  </si>
+  <si>
+    <t>음악 소울넘버를 만나다</t>
+  </si>
+  <si>
+    <t>한양의 상징대로 육조거리</t>
+  </si>
+  <si>
+    <t>PIECE BY PEACE</t>
+  </si>
+  <si>
+    <t>초등학교 4-6학년 성인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제 32기 고등학생 인턴제 </t>
+  </si>
+  <si>
+    <t>서울풍물시장 청춘1번가</t>
+  </si>
+  <si>
+    <t>브런치 콘서트 낭만드림 낭만 모차르트1</t>
+  </si>
+  <si>
+    <t>2021 시민예술가 전시지원사업 예술일지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIP석 150000원 ㅣ VIP가변석 150000원 R석 130000원 ㅣ R가변석 130000원 S석 100000원 ㅣ S가변석 100000원 A석 80000원 ㅣ A가변석 80000원 B석 60000원 ㅣ B가변석 60000원 </t>
+  </si>
+  <si>
+    <t>이경주 작가와 함께하는 현대 민화</t>
+  </si>
+  <si>
+    <t>불가불가</t>
+  </si>
+  <si>
+    <t>대인 (중학생이상~) 입장권 : 12000원 소인 (만 36개월~ 초등학생) 입장권 : 15000원</t>
+  </si>
+  <si>
+    <t>R 90000 S 70000 A 50000 B 30000 C 10000</t>
+  </si>
+  <si>
+    <t>Borderless Universe</t>
+  </si>
+  <si>
+    <t>안무가전 TANZ ARGUMENT</t>
+  </si>
+  <si>
+    <t>화신백화점 사라진 종로의 랜드마크</t>
+  </si>
+  <si>
+    <t>R석 80000원 S석 70000원</t>
+  </si>
+  <si>
+    <t>2022 노원 지역예술가 작품전시회</t>
+  </si>
+  <si>
+    <t>R석 66000원 S석 44000</t>
+  </si>
+  <si>
+    <t>김상원 김지나 피아노 듀오 리사이틀</t>
+  </si>
+  <si>
+    <t>비대면 주제해설 과학관QR옴니버스</t>
+  </si>
+  <si>
+    <t>서울상상나라 돌려 돌려 바퀴 발전기</t>
+  </si>
+  <si>
+    <t>문화예술 교양을 쌓고자 하는 누구나</t>
+  </si>
+  <si>
+    <t>초등학교 3학년 ~ 고등학교 2학년</t>
+  </si>
+  <si>
+    <t>R석 40000원 A석 30000원</t>
+  </si>
+  <si>
+    <t>도성의 서쪽 문 헐값에 팔리다</t>
+  </si>
+  <si>
+    <t>트리오 아티스트리 제3회 정기연주회</t>
+  </si>
+  <si>
+    <t>서울시립미술관 권진규탄생 100주년기념 노실의천사</t>
+  </si>
+  <si>
+    <t>2022 서울시향 오스모 벤스케의 수수께끼 변주곡</t>
+  </si>
+  <si>
+    <t>제3회 휴먼시티디자인어워드 시민 투표 및 전시</t>
+  </si>
+  <si>
+    <t>만 13세 이상 관람가 (중학생 이상 관람가)</t>
+  </si>
+  <si>
+    <t>12세 이상 관람가 (초등학교 5학년 이상)</t>
+  </si>
+  <si>
+    <t>초등학교(3~6학년) 자녀를 둔 가족 (미취학 1~2학년 초등학생 중고생 동반 불가)</t>
+  </si>
+  <si>
+    <t>청계천 기계공구상가 붕어빵틀에서 인공위성까지</t>
+  </si>
+  <si>
+    <t>14세이상 관람 가능 (2009년 12월 31일 출생자까지)</t>
+  </si>
+  <si>
+    <t>국내외 거주 외국인 및 교포 해외에 서울을 알리고자 하는 시민</t>
+  </si>
+  <si>
+    <t>서울공예박물관</t>
+  </si>
+  <si>
+    <t>반포심산아트홀</t>
+  </si>
+  <si>
+    <t>모든 시민</t>
+  </si>
+  <si>
+    <t>서울시립미술관</t>
+  </si>
+  <si>
+    <t>충무아트센터</t>
+  </si>
+  <si>
+    <t>한성백제박물관</t>
+  </si>
+  <si>
+    <t>서울상상나라</t>
+  </si>
+  <si>
+    <t>서울시민</t>
+  </si>
+  <si>
+    <t>모든시민</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전체 관람가 </t>
+  </si>
+  <si>
+    <t>전체이용가</t>
+  </si>
+  <si>
+    <t>중랑아트센터</t>
+  </si>
+  <si>
+    <t>히든플레이스</t>
+  </si>
+  <si>
+    <t>상계예술마당</t>
+  </si>
+  <si>
+    <t>문화비축기지</t>
+  </si>
+  <si>
+    <t>북서울꿈의숲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55000원 </t>
+  </si>
+  <si>
+    <t>한양도성박물관</t>
+  </si>
+  <si>
+    <t>서울역사박물관</t>
+  </si>
+  <si>
+    <t>제한 없음</t>
+  </si>
+  <si>
+    <t>서울 멋쟁이</t>
+  </si>
+  <si>
+    <t>서울풍물시장</t>
+  </si>
+  <si>
+    <t>소망을 새기다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전체관람 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36개월이상 </t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>유아 단체</t>
+  </si>
+  <si>
+    <t>세종문화회관</t>
+  </si>
+  <si>
+    <t>8세 이상</t>
+  </si>
+  <si>
+    <t>성수아트홀</t>
+  </si>
+  <si>
+    <t>ADM 갤러리</t>
+  </si>
+  <si>
+    <t>관악문화재단</t>
+  </si>
+  <si>
+    <t>갤러리BK</t>
+  </si>
+  <si>
+    <t>전체관람</t>
+  </si>
+  <si>
+    <t>홈페이지 참고</t>
+  </si>
+  <si>
+    <t>금나래아트홀</t>
+  </si>
+  <si>
+    <t>서울시립과학관</t>
+  </si>
+  <si>
+    <t>국립중앙박물관</t>
+  </si>
+  <si>
+    <t>관람객 누구나</t>
+  </si>
+  <si>
+    <t>전석 2만원</t>
+  </si>
+  <si>
+    <t>시민 누구나</t>
+  </si>
+  <si>
+    <t>백암아트홀</t>
+  </si>
+  <si>
+    <t>몽촌역사관</t>
+  </si>
+  <si>
+    <t>초등학생 가족</t>
+  </si>
+  <si>
+    <t>5만원 3만원</t>
+  </si>
+  <si>
+    <t>전체관람가</t>
+  </si>
+  <si>
+    <t>강동아트센터</t>
+  </si>
+  <si>
+    <t>먼길 이야기</t>
+  </si>
+  <si>
+    <t>청계천박물관</t>
+  </si>
+  <si>
+    <t>강좌별 상이</t>
+  </si>
+  <si>
+    <t>전체 관람가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전체관람가 </t>
+  </si>
+  <si>
+    <t>전 연령</t>
+  </si>
+  <si>
+    <t>EndDay</t>
+  </si>
+  <si>
+    <t>전체 이용</t>
+  </si>
+  <si>
+    <t>예술의전당</t>
+  </si>
+  <si>
+    <t xml:space="preserve">청소년 </t>
+  </si>
+  <si>
+    <t>만 7세 이상</t>
+  </si>
+  <si>
+    <t>모두</t>
+  </si>
+  <si>
+    <t>기타</t>
+  </si>
+  <si>
+    <t>무용</t>
+  </si>
+  <si>
+    <t>클래식</t>
+  </si>
+  <si>
+    <t>없음</t>
+  </si>
+  <si>
+    <t>시민청</t>
+  </si>
+  <si>
+    <t>전연령</t>
+  </si>
+  <si>
+    <t>콘서트</t>
+  </si>
+  <si>
+    <t>연극</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>시민</t>
+  </si>
+  <si>
+    <t>경교장</t>
+  </si>
+  <si>
+    <t>성인</t>
+  </si>
+  <si>
+    <t>누구나</t>
+  </si>
+  <si>
+    <t>국악</t>
+  </si>
+  <si>
+    <t>DDP</t>
+  </si>
+  <si>
+    <t>무료</t>
+  </si>
+  <si>
+    <t>전체</t>
+  </si>
+  <si>
+    <t>총 30명 이용 가능 - 서울시 공공예약 사전접수자(20명) 현장접수(10명) (※코로나 백신 접종완료자 PCR 음성확인자 예외자만 가능)</t>
+  </si>
+  <si>
+    <t>서리풀 休 갤러리 산의 비밀 김태민 개인전</t>
+  </si>
+  <si>
+    <t>MMCA 이건희컬렉션 특별전 한국미술명작</t>
+  </si>
+  <si>
+    <t>노원문화재단 문화강좌 노원유스챔버오케스트라 수강생 모집</t>
+  </si>
+  <si>
+    <t>R석 70000원 S석 50000원 A석 30000원</t>
+  </si>
+  <si>
+    <t>VIP석 70000원 R석 50000원 S석 30000원</t>
+  </si>
+  <si>
+    <t>Restoration of Relationships</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VIP 15만원 R 13만원 S 10만원 A 7만원</t>
+  </si>
+  <si>
+    <t>경춘선숲길 갤러리 노원마을 미술 탐험전 00미술관 아카이빙전</t>
+  </si>
+  <si>
+    <t>2022 상반기 세종예술아카데미 예술교양강좌 뽐나는 클래스</t>
+  </si>
+  <si>
+    <t>TikTok 나래한바퀴 for Woman</t>
+  </si>
+  <si>
+    <t>2021년 한양도성박물관 하반기 기획전 도성의 서쪽 문 헐값에 팔리다</t>
+  </si>
+  <si>
+    <t>강병기 교수 기증유물특별전 어느 도시학자가 꿈 꾼 서울</t>
+  </si>
+  <si>
+    <t>꿈마을놀이체험교실 누가누가 잘하나 우리놀이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">코리아쿱오케스트라의 온 클래식 새봄 </t>
+  </si>
+  <si>
+    <t>서리풀청년아트갤러리 어떤 순간의 작은 픽셀</t>
+  </si>
+  <si>
+    <t>서울상상나라 신규전시 뿜뿜 펀 에너지</t>
+  </si>
+  <si>
+    <t>신춘음악회 은평 봄 소식</t>
+  </si>
+  <si>
+    <t>빛 영국 테이트미술관 특별전</t>
+  </si>
+  <si>
+    <t>판소리 레미제라블 구구선 사람들</t>
+  </si>
+  <si>
+    <t>개관 8주년 기념전시 화가의 비망록</t>
+  </si>
+  <si>
+    <t>SEMU YEOL LECTURE</t>
+  </si>
+  <si>
+    <t>크래프트 윈도우 4. 공예 온색溫色</t>
+  </si>
+  <si>
+    <t>서울시립미술관 성찬경 청금루 주인</t>
+  </si>
+  <si>
+    <t>꿈나무호기심탐험대 안녕 박물관으로 놀러와</t>
+  </si>
+  <si>
+    <t>5th 자연을 담은 생태화 작품전시회</t>
+  </si>
+  <si>
+    <t>임시정부 첫 국무위원회 경교장에서 열리다</t>
+  </si>
+  <si>
+    <t>뮤지컬 엑스칼리버</t>
+  </si>
+  <si>
+    <t>탐방 새활용이야기</t>
+  </si>
+  <si>
+    <t>아카이브 기획전시 한미금속공예워크숍: 참가신청 링크가 열렸습니다.</t>
+  </si>
+  <si>
+    <t>미디어센터 관악 메타버스 교육 안내</t>
+  </si>
+  <si>
+    <t>3월 문화가 있는 날 연계행사</t>
+  </si>
+  <si>
+    <t>내 손으로 그리는 과학관 생태교구</t>
+  </si>
+  <si>
+    <t>2022년 상반기 우리가족 박물관 여행 교육생 모집</t>
+  </si>
+  <si>
+    <t>몽촌토성투어프로그램 출동 몽촌토성 꾸러기 수비대</t>
+  </si>
+  <si>
+    <t>뮤지컬 프리다 The Last Night Show</t>
+  </si>
+  <si>
+    <t>프랑스 국립 자연사박물관 특별전 바다미지로의탐험</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공공미술 시민아이디어 구현 문화비축기지 모래 시간 시민개방 </t>
+  </si>
+  <si>
+    <t>미생물 관찰과 배양</t>
+  </si>
+  <si>
+    <t>Re Vitality</t>
+  </si>
+  <si>
+    <t>뮤지컬 빈센트 반 고흐</t>
+  </si>
+  <si>
+    <t>다음 세대를 위한 집</t>
+  </si>
+  <si>
+    <t>뮤지컬 데스노트</t>
+  </si>
+  <si>
+    <t>주말문화유산탐방</t>
+  </si>
+  <si>
+    <t>꿈마을울림교실</t>
+  </si>
+  <si>
+    <t>갈산문화예술센터 개관 기념 어린이 넌버벌 공연 네네네</t>
+  </si>
+  <si>
+    <t>2022년 우리 가족 박물관 여행</t>
+  </si>
+  <si>
+    <t>살바도르 달리 Salvador Dali Imagination and Reality</t>
+  </si>
+  <si>
+    <t>지역공예 기획전시 이 땅의 풀로 엮는 초경공예</t>
+  </si>
+  <si>
+    <t>제1회 체부동 생활문화전시회 내 생애 첫 작품展</t>
+  </si>
+  <si>
+    <t>5개의 집과 30개의 문 상상하는 작가 안규철</t>
+  </si>
+  <si>
+    <t>뮤지컬·오페라</t>
+  </si>
+  <si>
+    <t>R석 55000 · S석 44000</t>
+  </si>
+  <si>
+    <t>문화교양·강좌</t>
+  </si>
+  <si>
+    <t>전시·미술</t>
+  </si>
+  <si>
+    <t>일반 만 24세 초과 ~ 만 65세 미만 : 15000원 · 청소년 만 12세 초과 ~ 만 24세 : 12000원 · 어린이 만 6세초과 ~ 만 12세 : 9000원 · 전시예매 : 인터파크 · 특별 할인과 무료 입장 대상자에 관한 자세한 내용은 홈페이지 참조</t>
+  </si>
+  <si>
+    <t>경로를 재탐색합니다 UN·LEARNING AUSTRALIA</t>
+  </si>
+  <si>
+    <t>성인 20000원 · 청소년 15000원 · 어린이 13000원 등</t>
+  </si>
+  <si>
+    <t>독주·독창회</t>
+  </si>
+  <si>
+    <t>14세 이상 관람가 · 2009년 포함 이전 출생자 관람 가능</t>
+  </si>
+  <si>
+    <t>제페토 파헤치기 20000원 · 로블록스 게임만들고 수익화해보기 50000원</t>
+  </si>
+  <si>
+    <t>성인 4000원 · 학생 3000원 · 65세 이상 7세 이하 장애인 무료</t>
+  </si>
+  <si>
+    <t>R석 55000원 · S석 40000원 · A석 30000원</t>
+  </si>
+  <si>
+    <t>성인: 5000원 (만 25세 이상 - 만 60세 미만) 청소년 및 어린이: 3000원 (만 7세 이상 - 만 25세 미만) · 무료 특별 할인에 관한 내용은 온라인 예약 홈페이지(인터파크)나 현장 발권 창구에서 확인할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>성인: 3000원 (만 25세 이상 - 만 60세 미만) 청소년 및 어린이: 2000원 (만 7세 이상 - 만 25세 미만) · 무료 특별 할인에 관한 내용은 온라인 예약 홈페이지(인터파크)나 현장발권 창구에서 확인할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>관 람 료: 성인 20000· 청소년 15000원· 어린이 13000원</t>
+  </si>
+  <si>
+    <t>일반 10000원 · 중구민 5000원</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=53e2f4268a504b8cb2e496e7555747a9&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e16befa6396b4fa39617e1861db1f9d8&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=f81ed29c1c854c55887e6eb81bae05e6&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=044f25f849914b11a36f2a4f4cd4b529&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=17c3c2eb19b44d1090dba93c471ad4d1&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=0e9b31101b174a6a92102cb1fc0a61c3&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=4a58372fd6a74351834e29f8223e7ef3&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=ff893c6aad394f3bae082dd44f7d59b5&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e074630b4c35482c9ccdfbfd746b4db8&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=382557542d9241baa6b8b6a8a4fc462f&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=df63c7edbf1e4316a429df4178ab2378&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=77e1fdca64cb456fa6e4e4efaf77e736&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=af6f9985699f4f26b01d800c690d8f7a&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=f1e4568f277a4f2597c8e984ff3a8b06&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=fa40280c48084981820cb08f0019b0f8&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=b959c23eda9441fbb6167f95d8ac6238&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=0f113df285c34e799af2ce07384e81ee&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=bac76b5a65094b22b8e8881f8e2e10a3&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=16ec177cd0574fa1b4e57f5bc7498946&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=211700604d824608b9e1ef676284d06d&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=28678a8021624229b88101322fcd62e7&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=c6486360e5b24721a76afc04e9bce82b&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=6e4bcdb40dea40e585daacf0b55ddfcf&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=6d88fcec1bdb4d70956233b04513bb17&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=af7414944c7b4a8fa8e82790a9566afc&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=cff95356c24f41a0b0eb62690175f9d3&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e821749f8a7641778467d558ffaa139f&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=7db36210c0cf4b6f9a0b490fe02e663f&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e80c9a45dd4a4523b705b4f9f4fd0752&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=685c7e47ae9f48b598331db228b192fd&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=ef7f0eaeb0564fb5a9930160b4cc89b8&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=6ce5b19de0394395bf445630a73b2304&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=b843330a9b8b41338e5d899e7be565b2&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=b4da9bf5104f4969879524e9570a13a4&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=0e7ed93593294467a6fc43be6dd01d47&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=75aa754cc4d7428593f3183f68b62e07&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=1e8205a32b174811845c47e5d02e56a2&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=ec2f510b0c6f408796c1658fc71010b0&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=d386318db41b4606b934c4ce8a4ae4eb&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=bdaba5e5a27a4aae954076f726398350&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=54fbbca4f7bd4bf9921fbb61c4ec50f7&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=af21c1e53acb4355bfde8cf804e84c3c&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=3220d04e4f6c4b62b5ed02e89ace7ce9&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e7c0057bb43a4ffca8608de48f52728e&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=52c3ad9ab82a4bd6992ba0524f99f8db&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=347c30db4d2e4d1c9d0afb02cd6737cc&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=8b344606944642ceb6126918b03b960e&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=4a40f504967c4e989d571c43b6909430&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=194d3212068845bd8f438b3e5bf7a88d&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=ae2ff4fe07e344a49ba3a6f0c069c19a&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=a26ffb6676a344c9b14a9f1e5ff9355f&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=37ac364687b24b8cafee60c4dbbd699a&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=39aa2a987c144d6d8166f51f9b45c915&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=664e21afc62a43bb8a24e47f8bf44381&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=b01d5b432126461cacb24b49d07b9001&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=ed4bb2192d56496587b1db0254c8573c&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=5e68911f02cf4509aacdb42a4249cf7f&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=604d73fb75bf4e74b9334e0d8154b552&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=465d6772bbd74978aa8370b4e9f7f9dc&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=6cf76404b5184b31b69b174c0dd3bd4f&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=0963daffb4d54ac7a94299fbdd01831c&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=ab495fd914d2468aa79818f8405d05bb&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=3244c05cddc4434c8b5d4d1be5747a55&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=2be73bec3cfc40ddbbbf918fb7a20198&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=a13761ab56a24f9092f9b0a1dbd60f3f&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=775b237d15f7492ab87cb234e75f993a&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=8557b253e3664903b35019ce1ccc7248&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=cad44d27773142b0a1f1146194a7d6e2&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=97bb5fbe549d416abacb2a0c03969233&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=fe21f77519214bbea8ef82c1bb194fd5&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=b030bb7a9cc9473a8f1e3d525ed50a61&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=ff52847ea4b942e18ec0b7dd8f196d03&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=c022936aeddb40b7afc715b0dd76bc80&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e3ecb5d0dec34ef79d3e8af14a3ac70a&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=c9fa51b477db4374b32bfaa48c65ff88&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=18a7b06e25f1492d9b5ccb6b9b583033&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=8b72700aa88c4972bf33e215982c1d94&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=cca912d1ff9e4f588b1540b605ff4d5d&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=cb38c94980af48718cf9c84a1661446c&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=7f925c1fbc8f4b9dbb47e910b2cfca0e&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=f66eedef3657487484282670b81c9836&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=d57ff34e3b2743529b24c42cf9846378&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=4abaf4ee155340f7b30a267f8c2c2fb2&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=a0e62f4f5d6346d5b305bbfa868f45c7&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=6f8f2794fb7c4bbfa8e4aff25d63b326&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e703eba4f4f24d7d8c4f6e6daa12659f&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=5045ab2fb3264d468f7b4c4d0b67d9b2&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=d5a69617ce994d88a6ddefd3bc27f7ea&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=8b7f3fd8e1ec4e12b0f97442db0b3177&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=b66f7836fd94443cb5fdb32e2095d616&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=20a22d1ab43e458b9de77b8bebeadce8&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=43f9ce6848df4dfe924fd6710d161dca&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=657b72e1e8e94ad4ac769217d23a2d63&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=946851cdace141ebb0dcdbcdd0078b0c&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=3eaedbf9c8d74a458387872345b23694&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=8b1dc74204994ecda5dfc17753bc4fc4&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=b45759fb82ef4788b1ca96b3e92ba118&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=bc2d54bd7cda47f7a170ec02942681ca&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=05fe082236a84491a8fc9d0b6b95e6fb&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=0486dfd544ba4788b5817e1e201c0ae4&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=1fa2bced222f48ee95dd0ca22f7053cc&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=875cc054457c451b957d2d6dc6ad7076&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=78fff005fcc84adf8c285e364c41705a&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=1e0a1c8144354f54b2149ac63e3a732d&amp;thumb=Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=a4f60226c52249b18ab6d2c7c4f9a047&amp;thumb=Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e71f14e3e6104f3d9550188c2331d4de&amp;thumb=Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=44df2e99415c4ef7a800dfe6af313615&amp;thumb=Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김남중 비올라 독주회 활이 춤춘다 VI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>마믅소리</t>
-  </si>
-  <si>
-    <t>3월 한성백제박물관 문화시네마</t>
-  </si>
-  <si>
-    <t>가족뮤지컬 슈퍼클로젯</t>
-  </si>
-  <si>
-    <t>2022 봄에 내리는 젠틀레인 재즈로 듣는 로맨틱 팝 &amp; 가요</t>
-  </si>
-  <si>
-    <t>서울역사탐구교실 지도로 찾아가는 옛 서울</t>
-  </si>
-  <si>
-    <t>어른 3000원   청소년 1800원   어린이 1200원</t>
-  </si>
-  <si>
-    <t>뮤지컬 앨리스 스튜디오</t>
-  </si>
-  <si>
-    <t>VIP석 55000원 R석 44000원</t>
-  </si>
-  <si>
-    <t>전석 1만원 (할인율 상세페이지 참조)</t>
-  </si>
-  <si>
-    <t>40000원 (*재료비 10000원 별도)</t>
-  </si>
-  <si>
-    <t>만4세 이상</t>
-  </si>
-  <si>
-    <t xml:space="preserve">만 7세 이상 </t>
-  </si>
-  <si>
-    <t>6세 이상 어린이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서울역사박물관대학 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">미취학아동 입장불가 </t>
-  </si>
-  <si>
-    <t>서울생활문화센터 서교</t>
-  </si>
-  <si>
-    <t>통의동 보안여관</t>
-  </si>
-  <si>
-    <t>StartDay</t>
-  </si>
-  <si>
-    <t>전석 20000원</t>
-  </si>
-  <si>
-    <t>전석 30000원</t>
-  </si>
-  <si>
-    <t>서울새활용플라자</t>
-  </si>
-  <si>
-    <t>김아름 피아노 독주회</t>
-  </si>
-  <si>
-    <t>만 7세 이상 입장</t>
-  </si>
-  <si>
-    <t>만 7세이상 입장가능</t>
-  </si>
-  <si>
-    <t>코리아나 화장박물관</t>
-  </si>
-  <si>
-    <t>PlaceName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전석 20000원 </t>
-  </si>
-  <si>
-    <t>신수정 피아노 독주회</t>
-  </si>
-  <si>
-    <t>종로구립 박노수미술관</t>
-  </si>
-  <si>
-    <t>서울생활문화센터 체부</t>
-  </si>
-  <si>
-    <t>ProgramName</t>
-  </si>
-  <si>
-    <t>이동욱 호른 독주회</t>
-  </si>
-  <si>
-    <t>테너 존노 리사이틀</t>
-  </si>
-  <si>
-    <t>미취학아동 입장불가</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>양혜순 비올라 독주회</t>
-  </si>
-  <si>
-    <t>만 13세 이상관람</t>
-  </si>
-  <si>
-    <t>톤픽쳐 토크콘서트</t>
-  </si>
-  <si>
-    <t>만 5세 이상 관람가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전석 20000원  </t>
-  </si>
-  <si>
-    <t>베이스 장영근 독창회</t>
-  </si>
-  <si>
-    <t>전석 10000원</t>
-  </si>
-  <si>
-    <t>12만원 (3개월)</t>
-  </si>
-  <si>
-    <t>임진영 피아노 독주회</t>
-  </si>
-  <si>
-    <t>8세이상 입장가능</t>
-  </si>
-  <si>
-    <t>미취학아동입장불가</t>
-  </si>
-  <si>
-    <t>노원문화예술회관</t>
-  </si>
-  <si>
-    <t>국립현대미술관 서울</t>
-  </si>
-  <si>
-    <t>라운지 프로젝트</t>
-  </si>
-  <si>
-    <t>서울시립 북서울미술관</t>
-  </si>
-  <si>
-    <t>서울시립남서울미술관</t>
-  </si>
-  <si>
-    <t>漆 아시아를 칠하다</t>
-  </si>
-  <si>
-    <t>경춘선숲길 갤러리</t>
-  </si>
-  <si>
-    <t>서리풀청년아트갤러리</t>
-  </si>
-  <si>
-    <t>갈산문화예술센터</t>
-  </si>
-  <si>
-    <t>은평문화예술회관</t>
-  </si>
-  <si>
-    <t>초등학생 이상 관람</t>
-  </si>
-  <si>
-    <t>피아노 앙상블 S</t>
-  </si>
-  <si>
-    <t>초등학생 3학년 이상</t>
-  </si>
-  <si>
-    <t>공평도시유적전시관</t>
-  </si>
-  <si>
-    <t>서울도시건축전시관</t>
-  </si>
-  <si>
-    <t>12세 이상 관람가</t>
-  </si>
-  <si>
-    <t>입장료 4000원</t>
-  </si>
-  <si>
-    <t>36개월 이상 관람</t>
-  </si>
-  <si>
-    <t>서울하수도과학관</t>
-  </si>
-  <si>
-    <t>무료 ※사전예약제</t>
-  </si>
-  <si>
-    <t>조선의 승려 장인</t>
-  </si>
-  <si>
-    <t>서울생활사박물관</t>
-  </si>
-  <si>
-    <t>서울상상나라 입장객</t>
-  </si>
-  <si>
-    <t>1919 필라델피아</t>
-  </si>
-  <si>
-    <t>8강좌 통합 30000원(꾸러미 미포함) 60000원(꾸러미 포함)</t>
-  </si>
-  <si>
-    <t>시민청 소리갤러리 전시 도시 도심心</t>
-  </si>
-  <si>
-    <t>권효진 귀국 피아노 독주회</t>
-  </si>
-  <si>
-    <t>트럼펫터 노민호의 봄의향연</t>
-  </si>
-  <si>
-    <t>초등 3~5학년 동반가족</t>
-  </si>
-  <si>
-    <t>초등학생 동반가족(앱활용)</t>
-  </si>
-  <si>
-    <t>ProgramNumber</t>
-  </si>
-  <si>
-    <t>초등 1~5학년 동반가족</t>
-  </si>
-  <si>
-    <t>TargetAudience</t>
-  </si>
-  <si>
-    <t>2022 트리오 바스 콘서트</t>
-  </si>
-  <si>
-    <t>서울풍물시장 전통문화체험관</t>
-  </si>
-  <si>
-    <t>장문영 바이올린 독주회</t>
-  </si>
-  <si>
-    <t>초등학생 동반 가족 누구나</t>
-  </si>
-  <si>
-    <t>만 7세 이상 관람 가능</t>
-  </si>
-  <si>
-    <t>소프라노 김지영 독창회</t>
-  </si>
-  <si>
-    <t xml:space="preserve">만 7세 이상 관람 가능 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">제 30기 중학생 인턴제 </t>
-  </si>
-  <si>
-    <t>음악 소울넘버를 만나다</t>
-  </si>
-  <si>
-    <t>한양의 상징대로 육조거리</t>
-  </si>
-  <si>
-    <t>PIECE BY PEACE</t>
-  </si>
-  <si>
-    <t>초등학교 4-6학년 성인</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제 32기 고등학생 인턴제 </t>
-  </si>
-  <si>
-    <t>서울풍물시장 청춘1번가</t>
-  </si>
-  <si>
-    <t>브런치 콘서트 낭만드림 낭만 모차르트1</t>
-  </si>
-  <si>
-    <t>2021 시민예술가 전시지원사업 예술일지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIP석 150000원 ㅣ VIP가변석 150000원 R석 130000원 ㅣ R가변석 130000원 S석 100000원 ㅣ S가변석 100000원 A석 80000원 ㅣ A가변석 80000원 B석 60000원 ㅣ B가변석 60000원 </t>
-  </si>
-  <si>
-    <t>특별초청공연  제주도립무용단 녹담</t>
-  </si>
-  <si>
-    <t>이경주 작가와 함께하는 현대 민화</t>
-  </si>
-  <si>
-    <t>불가불가</t>
-  </si>
-  <si>
-    <t>대인 (중학생이상~) 입장권 : 12000원 소인 (만 36개월~ 초등학생) 입장권 : 15000원</t>
-  </si>
-  <si>
-    <t>R 90000 S 70000 A 50000 B 30000 C 10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핑크퐁 별나라 재즈 여행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DDP 오픈큐레이팅 vol.21 Material Collective 展</t>
-  </si>
-  <si>
-    <t>Borderless Universe</t>
-  </si>
-  <si>
-    <t>안무가전 TANZ ARGUMENT</t>
-  </si>
-  <si>
-    <t>화신백화점 사라진 종로의 랜드마크</t>
-  </si>
-  <si>
-    <t>R석 80000원 S석 70000원</t>
-  </si>
-  <si>
-    <t>2022 노원 지역예술가 작품전시회</t>
-  </si>
-  <si>
-    <t>R석 66000원 S석 44000</t>
-  </si>
-  <si>
-    <t>김상원 김지나 피아노 듀오 리사이틀</t>
-  </si>
-  <si>
-    <t>비대면 주제해설 과학관QR옴니버스</t>
-  </si>
-  <si>
-    <t>서울상상나라 돌려 돌려 바퀴 발전기</t>
-  </si>
-  <si>
-    <t>문화예술 교양을 쌓고자 하는 누구나</t>
-  </si>
-  <si>
-    <t>초등학교 3학년 ~ 고등학교 2학년</t>
-  </si>
-  <si>
-    <t>R석 40000원 A석 30000원</t>
-  </si>
-  <si>
-    <t>도성의 서쪽 문 헐값에 팔리다</t>
-  </si>
-  <si>
-    <t>트리오 아티스트리 제3회 정기연주회</t>
-  </si>
-  <si>
-    <t>서울시립미술관 권진규탄생 100주년기념 노실의천사</t>
-  </si>
-  <si>
-    <t>2022 서울시향 오스모 벤스케의 수수께끼 변주곡</t>
-  </si>
-  <si>
-    <t>제3회 휴먼시티디자인어워드 시민 투표 및 전시</t>
-  </si>
-  <si>
-    <t>만 13세 이상 관람가 (중학생 이상 관람가)</t>
-  </si>
-  <si>
-    <t>12세 이상 관람가 (초등학교 5학년 이상)</t>
-  </si>
-  <si>
-    <t>핑크퐁 별나라 재즈 여행</t>
-  </si>
-  <si>
-    <t>초등학교(3~6학년) 자녀를 둔 가족 (미취학 1~2학년 초등학생 중고생 동반 불가)</t>
-  </si>
-  <si>
-    <t>청계천 기계공구상가 붕어빵틀에서 인공위성까지</t>
-  </si>
-  <si>
-    <t>14세이상 관람 가능 (2009년 12월 31일 출생자까지)</t>
-  </si>
-  <si>
-    <t>국내외 거주 외국인 및 교포 해외에 서울을 알리고자 하는 시민</t>
-  </si>
-  <si>
-    <t>서울공예박물관</t>
-  </si>
-  <si>
-    <t>반포심산아트홀</t>
-  </si>
-  <si>
-    <t>모든 시민</t>
-  </si>
-  <si>
-    <t>서울시립미술관</t>
-  </si>
-  <si>
-    <t>충무아트센터</t>
-  </si>
-  <si>
-    <t>한성백제박물관</t>
-  </si>
-  <si>
-    <t>서울상상나라</t>
-  </si>
-  <si>
-    <t>서울시민</t>
-  </si>
-  <si>
-    <t>모든시민</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전체 관람가 </t>
-  </si>
-  <si>
-    <t>전체이용가</t>
-  </si>
-  <si>
-    <t>중랑아트센터</t>
-  </si>
-  <si>
-    <t>히든플레이스</t>
-  </si>
-  <si>
-    <t>상계예술마당</t>
-  </si>
-  <si>
-    <t>문화비축기지</t>
-  </si>
-  <si>
-    <t>북서울꿈의숲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55000원 </t>
-  </si>
-  <si>
-    <t>한양도성박물관</t>
-  </si>
-  <si>
-    <t>서울역사박물관</t>
-  </si>
-  <si>
-    <t>제한 없음</t>
-  </si>
-  <si>
-    <t>서울 멋쟁이</t>
-  </si>
-  <si>
-    <t>서울풍물시장</t>
-  </si>
-  <si>
-    <t>소망을 새기다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전체관람 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">36개월이상 </t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>유아 단체</t>
-  </si>
-  <si>
-    <t>세종문화회관</t>
-  </si>
-  <si>
-    <t>8세 이상</t>
-  </si>
-  <si>
-    <t>성수아트홀</t>
-  </si>
-  <si>
-    <t>ADM 갤러리</t>
-  </si>
-  <si>
-    <t>관악문화재단</t>
-  </si>
-  <si>
-    <t>갤러리BK</t>
-  </si>
-  <si>
-    <t>전체관람</t>
-  </si>
-  <si>
-    <t>홈페이지 참고</t>
-  </si>
-  <si>
-    <t>금나래아트홀</t>
-  </si>
-  <si>
-    <t>서울시립과학관</t>
-  </si>
-  <si>
-    <t>국립중앙박물관</t>
-  </si>
-  <si>
-    <t>관람객 누구나</t>
-  </si>
-  <si>
-    <t>전석 2만원</t>
-  </si>
-  <si>
-    <t>시민 누구나</t>
-  </si>
-  <si>
-    <t>백암아트홀</t>
-  </si>
-  <si>
-    <t>몽촌역사관</t>
-  </si>
-  <si>
-    <t>초등학생 가족</t>
-  </si>
-  <si>
-    <t>5만원 3만원</t>
-  </si>
-  <si>
-    <t>전체관람가</t>
-  </si>
-  <si>
-    <t>강동아트센터</t>
-  </si>
-  <si>
-    <t>먼길 이야기</t>
-  </si>
-  <si>
-    <t>청계천박물관</t>
-  </si>
-  <si>
-    <t>강좌별 상이</t>
-  </si>
-  <si>
-    <t>전체 관람가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전체관람가 </t>
-  </si>
-  <si>
-    <t>전 연령</t>
-  </si>
-  <si>
-    <t>EndDay</t>
-  </si>
-  <si>
-    <t>전체 이용</t>
-  </si>
-  <si>
-    <t>예술의전당</t>
-  </si>
-  <si>
-    <t xml:space="preserve">청소년 </t>
-  </si>
-  <si>
-    <t>만 7세 이상</t>
-  </si>
-  <si>
-    <t>모두</t>
-  </si>
-  <si>
-    <t>기타</t>
-  </si>
-  <si>
-    <t>무용</t>
-  </si>
-  <si>
-    <t>클래식</t>
-  </si>
-  <si>
-    <t>없음</t>
-  </si>
-  <si>
-    <t>시민청</t>
-  </si>
-  <si>
-    <t>전연령</t>
-  </si>
-  <si>
-    <t>콘서트</t>
-  </si>
-  <si>
-    <t>연극</t>
-  </si>
-  <si>
-    <t>Fee</t>
-  </si>
-  <si>
-    <t>시민</t>
-  </si>
-  <si>
-    <t>경교장</t>
-  </si>
-  <si>
-    <t>성인</t>
-  </si>
-  <si>
-    <t>누구나</t>
-  </si>
-  <si>
-    <t>국악</t>
-  </si>
-  <si>
-    <t>DDP</t>
-  </si>
-  <si>
-    <t>무료</t>
-  </si>
-  <si>
-    <t>전체</t>
-  </si>
-  <si>
-    <t>총 30명 이용 가능 - 서울시 공공예약 사전접수자(20명) 현장접수(10명) (※코로나 백신 접종완료자 PCR 음성확인자 예외자만 가능)</t>
-  </si>
-  <si>
-    <t>서리풀 休 갤러리 산의 비밀 김태민 개인전</t>
-  </si>
-  <si>
-    <t>MMCA 이건희컬렉션 특별전 한국미술명작</t>
-  </si>
-  <si>
-    <t>노원문화재단 문화강좌 노원유스챔버오케스트라 수강생 모집</t>
-  </si>
-  <si>
-    <t>칸딘스키 말레비치 &amp; 러시아 아방가르드 : 혁명의 예술展</t>
-  </si>
-  <si>
-    <t>R석 70000원 S석 50000원 A석 30000원</t>
-  </si>
-  <si>
-    <t>VIP석 70000원 R석 50000원 S석 30000원</t>
-  </si>
-  <si>
-    <t>Restoration of Relationships</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VIP 15만원 R 13만원 S 10만원 A 7만원</t>
-  </si>
-  <si>
-    <t>경춘선숲길 갤러리 노원마을 미술 탐험전 00미술관 아카이빙전</t>
-  </si>
-  <si>
-    <t>2022 상반기 세종예술아카데미 예술교양강좌 뽐나는 클래스</t>
-  </si>
-  <si>
-    <t>TikTok 나래한바퀴 for Woman</t>
-  </si>
-  <si>
-    <t>2021년 한양도성박물관 하반기 기획전 도성의 서쪽 문 헐값에 팔리다</t>
-  </si>
-  <si>
-    <t>강병기 교수 기증유물특별전 어느 도시학자가 꿈 꾼 서울</t>
-  </si>
-  <si>
-    <t>꿈마을놀이체험교실 누가누가 잘하나 우리놀이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">코리아쿱오케스트라의 온 클래식 새봄 </t>
-  </si>
-  <si>
-    <t>서리풀청년아트갤러리 어떤 순간의 작은 픽셀</t>
-  </si>
-  <si>
-    <t>서울상상나라 신규전시 뿜뿜 펀 에너지</t>
-  </si>
-  <si>
-    <t>김남중 비올라 독주회 활이 춤춘다 4</t>
-  </si>
-  <si>
-    <t>신춘음악회 은평 봄 소식</t>
-  </si>
-  <si>
-    <t>빛 영국 테이트미술관 특별전</t>
-  </si>
-  <si>
-    <t>판소리 레미제라블 구구선 사람들</t>
-  </si>
-  <si>
-    <t>개관 8주년 기념전시 화가의 비망록</t>
-  </si>
-  <si>
-    <t>SEMU YEOL LECTURE</t>
-  </si>
-  <si>
-    <t>크래프트 윈도우 4. 공예 온색溫色</t>
-  </si>
-  <si>
-    <t>서울시립미술관 성찬경 청금루 주인</t>
-  </si>
-  <si>
-    <t>꿈나무호기심탐험대 안녕 박물관으로 놀러와</t>
-  </si>
-  <si>
-    <t>5th 자연을 담은 생태화 작품전시회</t>
-  </si>
-  <si>
-    <t>임시정부 첫 국무위원회 경교장에서 열리다</t>
-  </si>
-  <si>
-    <t>뮤지컬 엑스칼리버</t>
-  </si>
-  <si>
-    <t>탐방 새활용이야기</t>
-  </si>
-  <si>
-    <t>아카이브 기획전시 한미금속공예워크숍: 참가신청 링크가 열렸습니다.</t>
-  </si>
-  <si>
-    <t>미디어센터 관악 메타버스 교육 안내</t>
-  </si>
-  <si>
-    <t>3월 문화가 있는 날 연계행사</t>
-  </si>
-  <si>
-    <t>내 손으로 그리는 과학관 생태교구</t>
-  </si>
-  <si>
-    <t>2022년 상반기 우리가족 박물관 여행 교육생 모집</t>
-  </si>
-  <si>
-    <t>몽촌토성투어프로그램 출동 몽촌토성 꾸러기 수비대</t>
-  </si>
-  <si>
-    <t>EXHIBITION  Four Stories</t>
-  </si>
-  <si>
-    <t>뮤지컬 프리다 The Last Night Show</t>
-  </si>
-  <si>
-    <t>프랑스 국립 자연사박물관 특별전 바다미지로의탐험</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공공미술 시민아이디어 구현 문화비축기지 모래 시간 시민개방 </t>
-  </si>
-  <si>
-    <t>미생물 관찰과 배양</t>
-  </si>
-  <si>
-    <t>Re Vitality</t>
-  </si>
-  <si>
-    <t>뮤지컬 빈센트 반 고흐</t>
-  </si>
-  <si>
-    <t>다음 세대를 위한 집</t>
-  </si>
-  <si>
-    <t>뮤지컬 데스노트</t>
-  </si>
-  <si>
-    <t>주말문화유산탐방</t>
-  </si>
-  <si>
-    <t>꿈마을울림교실</t>
-  </si>
-  <si>
-    <t>갈산문화예술센터 개관 기념 어린이 넌버벌 공연 네네네</t>
-  </si>
-  <si>
-    <t>2022년 우리 가족 박물관 여행</t>
-  </si>
-  <si>
-    <t>살바도르 달리 Salvador Dali Imagination and Reality</t>
-  </si>
-  <si>
-    <t>지역공예 기획전시 이 땅의 풀로 엮는 초경공예</t>
-  </si>
-  <si>
-    <t>제1회 체부동 생활문화전시회 내 생애 첫 작품展</t>
-  </si>
-  <si>
-    <t>5개의 집과 30개의 문 상상하는 작가 안규철</t>
-  </si>
-  <si>
-    <t>뮤지컬·오페라</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=1e0a1c8144354f54b2149ac63e3a732d&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>R석 55000 · S석 44000</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=53e2f4268a504b8cb2e496e7555747a9&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>문화교양·강좌</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=a4f60226c52249b18ab6d2c7c4f9a047&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e71f14e3e6104f3d9550188c2331d4de&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>전시·미술</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e16befa6396b4fa39617e1861db1f9d8&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=44df2e99415c4ef7a800dfe6af313615&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=f81ed29c1c854c55887e6eb81bae05e6&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=044f25f849914b11a36f2a4f4cd4b529&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=17c3c2eb19b44d1090dba93c471ad4d1&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=0e9b31101b174a6a92102cb1fc0a61c3&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=4a58372fd6a74351834e29f8223e7ef3&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=ff893c6aad394f3bae082dd44f7d59b5&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e074630b4c35482c9ccdfbfd746b4db8&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=382557542d9241baa6b8b6a8a4fc462f&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=df63c7edbf1e4316a429df4178ab2378&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=77e1fdca64cb456fa6e4e4efaf77e736&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>일반 만 24세 초과 ~ 만 65세 미만 : 15000원 · 청소년 만 12세 초과 ~ 만 24세 : 12000원 · 어린이 만 6세초과 ~ 만 12세 : 9000원 · 전시예매 : 인터파크 · 특별 할인과 무료 입장 대상자에 관한 자세한 내용은 홈페이지 참조</t>
-  </si>
-  <si>
-    <t>경로를 재탐색합니다 UN·LEARNING AUSTRALIA</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=af6f9985699f4f26b01d800c690d8f7a&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=f1e4568f277a4f2597c8e984ff3a8b06&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=fa40280c48084981820cb08f0019b0f8&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=b959c23eda9441fbb6167f95d8ac6238&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=0f113df285c34e799af2ce07384e81ee&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=bac76b5a65094b22b8e8881f8e2e10a3&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>성인 20000원 · 청소년 15000원 · 어린이 13000원 등</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=16ec177cd0574fa1b4e57f5bc7498946&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=211700604d824608b9e1ef676284d06d&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=28678a8021624229b88101322fcd62e7&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=c6486360e5b24721a76afc04e9bce82b&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=6e4bcdb40dea40e585daacf0b55ddfcf&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=6d88fcec1bdb4d70956233b04513bb17&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=af7414944c7b4a8fa8e82790a9566afc&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=cff95356c24f41a0b0eb62690175f9d3&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e821749f8a7641778467d558ffaa139f&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=7db36210c0cf4b6f9a0b490fe02e663f&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e80c9a45dd4a4523b705b4f9f4fd0752&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=685c7e47ae9f48b598331db228b192fd&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=ef7f0eaeb0564fb5a9930160b4cc89b8&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=6ce5b19de0394395bf445630a73b2304&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=b843330a9b8b41338e5d899e7be565b2&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=b4da9bf5104f4969879524e9570a13a4&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=0e7ed93593294467a6fc43be6dd01d47&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=75aa754cc4d7428593f3183f68b62e07&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=1e8205a32b174811845c47e5d02e56a2&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=ec2f510b0c6f408796c1658fc71010b0&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=d386318db41b4606b934c4ce8a4ae4eb&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=bdaba5e5a27a4aae954076f726398350&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=54fbbca4f7bd4bf9921fbb61c4ec50f7&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=af21c1e53acb4355bfde8cf804e84c3c&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=3220d04e4f6c4b62b5ed02e89ace7ce9&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>독주·독창회</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e7c0057bb43a4ffca8608de48f52728e&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=52c3ad9ab82a4bd6992ba0524f99f8db&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=347c30db4d2e4d1c9d0afb02cd6737cc&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=8b344606944642ceb6126918b03b960e&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=4a40f504967c4e989d571c43b6909430&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=194d3212068845bd8f438b3e5bf7a88d&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=ae2ff4fe07e344a49ba3a6f0c069c19a&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=a26ffb6676a344c9b14a9f1e5ff9355f&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=37ac364687b24b8cafee60c4dbbd699a&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>14세 이상 관람가 · 2009년 포함 이전 출생자 관람 가능</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=39aa2a987c144d6d8166f51f9b45c915&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=664e21afc62a43bb8a24e47f8bf44381&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=b01d5b432126461cacb24b49d07b9001&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=ed4bb2192d56496587b1db0254c8573c&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>제페토 파헤치기 20000원 · 로블록스 게임만들고 수익화해보기 50000원</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=5e68911f02cf4509aacdb42a4249cf7f&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=604d73fb75bf4e74b9334e0d8154b552&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=465d6772bbd74978aa8370b4e9f7f9dc&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=6cf76404b5184b31b69b174c0dd3bd4f&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=0963daffb4d54ac7a94299fbdd01831c&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=ab495fd914d2468aa79818f8405d05bb&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=3244c05cddc4434c8b5d4d1be5747a55&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=2be73bec3cfc40ddbbbf918fb7a20198&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=a13761ab56a24f9092f9b0a1dbd60f3f&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=775b237d15f7492ab87cb234e75f993a&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=8557b253e3664903b35019ce1ccc7248&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=cad44d27773142b0a1f1146194a7d6e2&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=97bb5fbe549d416abacb2a0c03969233&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=fe21f77519214bbea8ef82c1bb194fd5&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=b030bb7a9cc9473a8f1e3d525ed50a61&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>성인 4000원 · 학생 3000원 · 65세 이상 7세 이하 장애인 무료</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=ff52847ea4b942e18ec0b7dd8f196d03&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=c022936aeddb40b7afc715b0dd76bc80&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e3ecb5d0dec34ef79d3e8af14a3ac70a&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=c9fa51b477db4374b32bfaa48c65ff88&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=18a7b06e25f1492d9b5ccb6b9b583033&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=8b72700aa88c4972bf33e215982c1d94&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=cca912d1ff9e4f588b1540b605ff4d5d&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>R석 55000원 · S석 40000원 · A석 30000원</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=cb38c94980af48718cf9c84a1661446c&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=7f925c1fbc8f4b9dbb47e910b2cfca0e&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=f66eedef3657487484282670b81c9836&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=d57ff34e3b2743529b24c42cf9846378&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=4abaf4ee155340f7b30a267f8c2c2fb2&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=a0e62f4f5d6346d5b305bbfa868f45c7&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=6f8f2794fb7c4bbfa8e4aff25d63b326&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e703eba4f4f24d7d8c4f6e6daa12659f&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=5045ab2fb3264d468f7b4c4d0b67d9b2&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>성인: 5000원 (만 25세 이상 - 만 60세 미만) 청소년 및 어린이: 3000원 (만 7세 이상 - 만 25세 미만) · 무료 특별 할인에 관한 내용은 온라인 예약 홈페이지(인터파크)나 현장 발권 창구에서 확인할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=d5a69617ce994d88a6ddefd3bc27f7ea&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=8b7f3fd8e1ec4e12b0f97442db0b3177&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=b66f7836fd94443cb5fdb32e2095d616&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>성인: 3000원 (만 25세 이상 - 만 60세 미만) 청소년 및 어린이: 2000원 (만 7세 이상 - 만 25세 미만) · 무료 특별 할인에 관한 내용은 온라인 예약 홈페이지(인터파크)나 현장발권 창구에서 확인할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=20a22d1ab43e458b9de77b8bebeadce8&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>관 람 료: 성인 20000· 청소년 15000원· 어린이 13000원</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=43f9ce6848df4dfe924fd6710d161dca&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>일반 10000원 · 중구민 5000원</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=657b72e1e8e94ad4ac769217d23a2d63&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=946851cdace141ebb0dcdbcdd0078b0c&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=3eaedbf9c8d74a458387872345b23694&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=8b1dc74204994ecda5dfc17753bc4fc4&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=b45759fb82ef4788b1ca96b3e92ba118&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=bc2d54bd7cda47f7a170ec02942681ca&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=05fe082236a84491a8fc9d0b6b95e6fb&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=0486dfd544ba4788b5817e1e201c0ae4&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=1fa2bced222f48ee95dd0ca22f7053cc&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=875cc054457c451b957d2d6dc6ad7076&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=78fff005fcc84adf8c285e364c41705a&amp;thumb=Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 봄에 내리는 젠틀레인 재즈로 듣는 로맨틱 팝 n 가요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별초청공연 제주도립무용단 녹담</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXHIBITION Four Stories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칸딘스키 말레비치 n 러시아 아방가르드 : 혁명의 예술展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1166,6 +1184,21 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1187,12 +1220,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1208,9 +1244,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1391,7 +1434,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1400,7 +1443,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1413,6 +1456,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1672,66 +1718,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="B86" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>257</v>
+        <v>125</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>367</v>
       </c>
       <c r="F2" s="4">
         <v>44631</v>
@@ -1740,27 +1787,27 @@
         <v>44633</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>121</v>
+        <v>248</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>259</v>
+        <v>136</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="F3" s="4">
         <v>44639</v>
@@ -1769,27 +1816,27 @@
         <v>44639</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>261</v>
+        <v>132</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="F4" s="4">
         <v>44623</v>
@@ -1798,27 +1845,27 @@
         <v>44644</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>262</v>
+        <v>139</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="F5" s="4">
         <v>44613</v>
@@ -1827,24 +1874,24 @@
         <v>44722</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>264</v>
+        <v>190</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="F6" s="4">
         <v>44533</v>
@@ -1853,27 +1900,27 @@
         <v>44675</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>0</v>
+        <v>251</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>265</v>
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>370</v>
       </c>
       <c r="F7" s="4">
         <v>44628</v>
@@ -1882,24 +1929,24 @@
         <v>44647</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>266</v>
@@ -1911,21 +1958,21 @@
         <v>44651</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>267</v>
@@ -1937,24 +1984,24 @@
         <v>44637</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>268</v>
@@ -1966,24 +2013,24 @@
         <v>44639</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>269</v>
@@ -1995,21 +2042,21 @@
         <v>44742</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>270</v>
@@ -2021,24 +2068,24 @@
         <v>44801</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>271</v>
@@ -2050,21 +2097,21 @@
         <v>44650</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>272</v>
@@ -2076,21 +2123,21 @@
         <v>44650</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>273</v>
@@ -2102,21 +2149,21 @@
         <v>44716</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>274</v>
@@ -2128,24 +2175,24 @@
         <v>44647</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>275</v>
@@ -2157,27 +2204,27 @@
         <v>44689</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F18" s="4">
         <v>44544</v>
@@ -2186,24 +2233,24 @@
         <v>44626</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F19" s="4">
         <v>44628</v>
@@ -2212,24 +2259,24 @@
         <v>44637</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F20" s="4">
         <v>44625</v>
@@ -2238,24 +2285,24 @@
         <v>44640</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F21" s="4">
         <v>44623</v>
@@ -2264,24 +2311,24 @@
         <v>44644</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F22" s="4">
         <v>44625</v>
@@ -2290,24 +2337,24 @@
         <v>44646</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F23" s="4">
         <v>44527</v>
@@ -2316,27 +2363,27 @@
         <v>44640</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F24" s="4">
         <v>44649</v>
@@ -2345,24 +2392,24 @@
         <v>44678</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F25" s="4">
         <v>44625</v>
@@ -2371,27 +2418,27 @@
         <v>44626</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F26" s="4">
         <v>44551</v>
@@ -2400,24 +2447,24 @@
         <v>44650</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F27" s="4">
         <v>44509</v>
@@ -2426,24 +2473,24 @@
         <v>44626</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F28" s="4">
         <v>44614</v>
@@ -2452,24 +2499,24 @@
         <v>44625</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>3</v>
+        <v>186</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F29" s="4">
         <v>44674</v>
@@ -2478,27 +2525,27 @@
         <v>44674</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F30" s="4">
         <v>44634</v>
@@ -2507,27 +2554,27 @@
         <v>44721</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F31" s="4">
         <v>44651</v>
@@ -2536,27 +2583,27 @@
         <v>44652</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F32" s="4">
         <v>44623</v>
@@ -2565,27 +2612,27 @@
         <v>44623</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F33" s="4">
         <v>44625</v>
@@ -2594,24 +2641,24 @@
         <v>44723</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F34" s="4">
         <v>44559</v>
@@ -2620,27 +2667,27 @@
         <v>44836</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F35" s="4">
         <v>44637</v>
@@ -2649,27 +2696,27 @@
         <v>44665</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>101</v>
+        <v>251</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>374</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F36" s="4">
         <v>44610</v>
@@ -2678,27 +2725,27 @@
         <v>44640</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>239</v>
+        <v>251</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>377</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F37" s="4">
         <v>44624</v>
@@ -2707,27 +2754,27 @@
         <v>44633</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F38" s="4">
         <v>44398</v>
@@ -2736,24 +2783,24 @@
         <v>44633</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F39" s="4">
         <v>44623</v>
@@ -2762,27 +2809,27 @@
         <v>44636</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F40" s="4">
         <v>44631</v>
@@ -2791,27 +2838,27 @@
         <v>44659</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F41" s="4">
         <v>44630</v>
@@ -2820,27 +2867,27 @@
         <v>44658</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F42" s="4">
         <v>44512</v>
@@ -2849,24 +2896,24 @@
         <v>44865</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F43" s="4">
         <v>44650</v>
@@ -2875,27 +2922,27 @@
         <v>44650</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F44" s="4">
         <v>44569</v>
@@ -2904,27 +2951,27 @@
         <v>44640</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F45" s="4">
         <v>44632</v>
@@ -2933,27 +2980,27 @@
         <v>44633</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F46" s="4">
         <v>44498</v>
@@ -2962,24 +3009,24 @@
         <v>44626</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F47" s="4">
         <v>44617</v>
@@ -2988,24 +3035,24 @@
         <v>44633</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F48" s="4">
         <v>44524</v>
@@ -3014,24 +3061,24 @@
         <v>45619</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F49" s="4">
         <v>44635</v>
@@ -3040,27 +3087,27 @@
         <v>44635</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>220</v>
+        <v>255</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F50" s="4">
         <v>44630</v>
@@ -3069,27 +3116,27 @@
         <v>44630</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F51" s="4">
         <v>44628</v>
@@ -3098,27 +3145,27 @@
         <v>44628</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="F52" s="4">
         <v>44632</v>
@@ -3127,27 +3174,27 @@
         <v>44632</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F53" s="4">
         <v>44614</v>
@@ -3156,27 +3203,27 @@
         <v>44637</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F54" s="4">
         <v>44509</v>
@@ -3185,24 +3232,24 @@
         <v>44626</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F55" s="4">
         <v>44551</v>
@@ -3211,24 +3258,24 @@
         <v>44689</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F56" s="4">
         <v>44474</v>
@@ -3237,24 +3284,24 @@
         <v>44731</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F57" s="4">
         <v>44652</v>
@@ -3263,27 +3310,27 @@
         <v>44738</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F58" s="4">
         <v>44590</v>
@@ -3292,27 +3339,27 @@
         <v>44633</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F59" s="4">
         <v>44621</v>
@@ -3321,27 +3368,27 @@
         <v>44710</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F60" s="4">
         <v>44647</v>
@@ -3350,27 +3397,27 @@
         <v>44738</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F61" s="4">
         <v>44596</v>
@@ -3379,27 +3426,27 @@
         <v>44651</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F62" s="4">
         <v>44625</v>
@@ -3408,24 +3455,24 @@
         <v>44646</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F63" s="4">
         <v>44633</v>
@@ -3434,27 +3481,27 @@
         <v>44633</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F64" s="4">
         <v>44658</v>
@@ -3463,27 +3510,27 @@
         <v>44658</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F65" s="4">
         <v>44337</v>
@@ -3492,24 +3539,24 @@
         <v>45291</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F66" s="4">
         <v>44588</v>
@@ -3518,24 +3565,24 @@
         <v>44645</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F67" s="4">
         <v>44600</v>
@@ -3544,24 +3591,24 @@
         <v>44625</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F68" s="4">
         <v>44519</v>
@@ -3570,24 +3617,24 @@
         <v>44647</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F69" s="4">
         <v>44600</v>
@@ -3596,27 +3643,27 @@
         <v>44742</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F70" s="4">
         <v>44498</v>
@@ -3625,27 +3672,27 @@
         <v>44926</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F71" s="4">
         <v>44644</v>
@@ -3654,24 +3701,24 @@
         <v>44710</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F72" s="4">
         <v>44644</v>
@@ -3680,24 +3727,24 @@
         <v>44703</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F73" s="4">
         <v>44562</v>
@@ -3706,24 +3753,24 @@
         <v>44916</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F74" s="4">
         <v>44562</v>
@@ -3732,27 +3779,27 @@
         <v>44926</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F75" s="4">
         <v>44562</v>
@@ -3761,27 +3808,27 @@
         <v>44926</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F76" s="4">
         <v>44523</v>
@@ -3790,27 +3837,27 @@
         <v>44681</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F77" s="4">
         <v>44624</v>
@@ -3819,27 +3866,27 @@
         <v>44624</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F78" s="4">
         <v>44602</v>
@@ -3848,24 +3895,24 @@
         <v>44651</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F79" s="4">
         <v>44629</v>
@@ -3874,27 +3921,27 @@
         <v>44629</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F80" s="4">
         <v>44600</v>
@@ -3903,24 +3950,24 @@
         <v>44701</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F81" s="4">
         <v>44631</v>
@@ -3929,27 +3976,27 @@
         <v>44632</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F82" s="4">
         <v>44642</v>
@@ -3958,27 +4005,27 @@
         <v>44642</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F83" s="4">
         <v>44646</v>
@@ -3987,27 +4034,27 @@
         <v>44661</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F84" s="4">
         <v>44626</v>
@@ -4016,27 +4063,27 @@
         <v>44626</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F85" s="4">
         <v>44626</v>
@@ -4045,27 +4092,27 @@
         <v>44626</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F86" s="4">
         <v>44631</v>
@@ -4074,27 +4121,27 @@
         <v>44631</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F87" s="4">
         <v>44640</v>
@@ -4103,27 +4150,27 @@
         <v>44640</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F88" s="4">
         <v>44611</v>
@@ -4132,24 +4179,24 @@
         <v>44632</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F89" s="4">
         <v>44604</v>
@@ -4158,27 +4205,27 @@
         <v>44625</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F90" s="4">
         <v>44600</v>
@@ -4187,24 +4234,24 @@
         <v>44668</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F91" s="4">
         <v>44607</v>
@@ -4213,24 +4260,24 @@
         <v>44680</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F92" s="4">
         <v>44537</v>
@@ -4239,27 +4286,27 @@
         <v>44626</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F93" s="4">
         <v>44621</v>
@@ -4268,24 +4315,24 @@
         <v>44801</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F94" s="4">
         <v>44540</v>
@@ -4294,24 +4341,24 @@
         <v>44661</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F95" s="4">
         <v>44551</v>
@@ -4320,27 +4367,27 @@
         <v>44640</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>206</v>
+        <v>251</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F96" s="4">
         <v>44561</v>
@@ -4349,27 +4396,27 @@
         <v>44668</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="F97" s="4">
         <v>44629</v>
@@ -4378,27 +4425,27 @@
         <v>44629</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="F98" s="4">
         <v>44590</v>
@@ -4407,24 +4454,24 @@
         <v>44633</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F99" s="4">
         <v>44637</v>
@@ -4433,27 +4480,27 @@
         <v>44637</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="F100" s="4">
         <v>44625</v>
@@ -4462,27 +4509,27 @@
         <v>44625</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F101" s="4">
         <v>44639</v>
@@ -4491,27 +4538,27 @@
         <v>44639</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F102" s="4">
         <v>44625</v>
@@ -4520,27 +4567,27 @@
         <v>44625</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="3">
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>96</v>
+        <v>181</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F103" s="4">
         <v>44632</v>
@@ -4549,27 +4596,27 @@
         <v>44632</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F104" s="4">
         <v>44630</v>
@@ -4578,27 +4625,27 @@
         <v>44631</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F105" s="4">
         <v>44464</v>
@@ -4607,27 +4654,27 @@
         <v>44626</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F106" s="4">
         <v>44628</v>
@@ -4636,27 +4683,27 @@
         <v>44628</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="F107" s="4">
         <v>44516</v>
@@ -4665,24 +4712,24 @@
         <v>44647</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F108" s="4">
         <v>44400</v>
@@ -4691,15 +4738,23 @@
         <v>44640</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I108">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I108">
     <sortCondition ref="C2:C108"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="https://culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=53e2f4268a504b8cb2e496e7555747a9&amp;thumb=Y" xr:uid="{4E78A812-31DA-46A5-8327-C4B1B1C9AA0E}"/>
+    <hyperlink ref="E6" r:id="rId2" display="https://culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e16befa6396b4fa39617e1861db1f9d8&amp;thumb=Y" xr:uid="{3199B910-C17F-4A44-A684-0E81E651C110}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00B209D3-6184-4F14-98FB-008FC326F428}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{F7922664-4FF6-4B96-AF52-0B73F485209C}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{E2180B5E-27AB-4A72-90CB-4C0B7FDCA37F}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{DEA6A916-2A32-4BCD-8E1D-D5EA8B115F19}"/>
+  </hyperlinks>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/project/Data/project_program.xlsx
+++ b/project/Data/project_program.xlsx
@@ -787,377 +787,377 @@
     <t>뮤지컬·오페라</t>
   </si>
   <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=1e0a1c8144354f54b2149ac63e3a732d&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>R석 55000 · S석 44000</t>
   </si>
   <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=53e2f4268a504b8cb2e496e7555747a9&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>문화교양·강좌</t>
   </si>
   <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=a4f60226c52249b18ab6d2c7c4f9a047&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e71f14e3e6104f3d9550188c2331d4de&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>전시·미술</t>
   </si>
   <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e16befa6396b4fa39617e1861db1f9d8&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=44df2e99415c4ef7a800dfe6af313615&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=f81ed29c1c854c55887e6eb81bae05e6&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=044f25f849914b11a36f2a4f4cd4b529&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=17c3c2eb19b44d1090dba93c471ad4d1&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=0e9b31101b174a6a92102cb1fc0a61c3&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=4a58372fd6a74351834e29f8223e7ef3&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=ff893c6aad394f3bae082dd44f7d59b5&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e074630b4c35482c9ccdfbfd746b4db8&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=382557542d9241baa6b8b6a8a4fc462f&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=df63c7edbf1e4316a429df4178ab2378&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=77e1fdca64cb456fa6e4e4efaf77e736&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>일반 만 24세 초과 ~ 만 65세 미만 : 15000원 · 청소년 만 12세 초과 ~ 만 24세 : 12000원 · 어린이 만 6세초과 ~ 만 12세 : 9000원 · 전시예매 : 인터파크 · 특별 할인과 무료 입장 대상자에 관한 자세한 내용은 홈페이지 참조</t>
   </si>
   <si>
     <t>경로를 재탐색합니다 UN·LEARNING AUSTRALIA</t>
   </si>
   <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=af6f9985699f4f26b01d800c690d8f7a&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=f1e4568f277a4f2597c8e984ff3a8b06&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=fa40280c48084981820cb08f0019b0f8&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=b959c23eda9441fbb6167f95d8ac6238&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=0f113df285c34e799af2ce07384e81ee&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=bac76b5a65094b22b8e8881f8e2e10a3&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>성인 20000원 · 청소년 15000원 · 어린이 13000원 등</t>
   </si>
   <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=16ec177cd0574fa1b4e57f5bc7498946&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=211700604d824608b9e1ef676284d06d&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=28678a8021624229b88101322fcd62e7&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=c6486360e5b24721a76afc04e9bce82b&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=6e4bcdb40dea40e585daacf0b55ddfcf&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=6d88fcec1bdb4d70956233b04513bb17&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=af7414944c7b4a8fa8e82790a9566afc&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=cff95356c24f41a0b0eb62690175f9d3&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e821749f8a7641778467d558ffaa139f&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=7db36210c0cf4b6f9a0b490fe02e663f&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e80c9a45dd4a4523b705b4f9f4fd0752&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=685c7e47ae9f48b598331db228b192fd&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=ef7f0eaeb0564fb5a9930160b4cc89b8&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=6ce5b19de0394395bf445630a73b2304&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=b843330a9b8b41338e5d899e7be565b2&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=b4da9bf5104f4969879524e9570a13a4&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=0e7ed93593294467a6fc43be6dd01d47&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=75aa754cc4d7428593f3183f68b62e07&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=1e8205a32b174811845c47e5d02e56a2&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=ec2f510b0c6f408796c1658fc71010b0&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=d386318db41b4606b934c4ce8a4ae4eb&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=bdaba5e5a27a4aae954076f726398350&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=54fbbca4f7bd4bf9921fbb61c4ec50f7&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=af21c1e53acb4355bfde8cf804e84c3c&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=3220d04e4f6c4b62b5ed02e89ace7ce9&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>독주·독창회</t>
   </si>
   <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e7c0057bb43a4ffca8608de48f52728e&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=52c3ad9ab82a4bd6992ba0524f99f8db&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=347c30db4d2e4d1c9d0afb02cd6737cc&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=8b344606944642ceb6126918b03b960e&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=4a40f504967c4e989d571c43b6909430&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=194d3212068845bd8f438b3e5bf7a88d&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=ae2ff4fe07e344a49ba3a6f0c069c19a&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=a26ffb6676a344c9b14a9f1e5ff9355f&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=37ac364687b24b8cafee60c4dbbd699a&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>14세 이상 관람가 · 2009년 포함 이전 출생자 관람 가능</t>
   </si>
   <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=39aa2a987c144d6d8166f51f9b45c915&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=664e21afc62a43bb8a24e47f8bf44381&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=b01d5b432126461cacb24b49d07b9001&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=ed4bb2192d56496587b1db0254c8573c&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>제페토 파헤치기 20000원 · 로블록스 게임만들고 수익화해보기 50000원</t>
   </si>
   <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=5e68911f02cf4509aacdb42a4249cf7f&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=604d73fb75bf4e74b9334e0d8154b552&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=465d6772bbd74978aa8370b4e9f7f9dc&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=6cf76404b5184b31b69b174c0dd3bd4f&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=0963daffb4d54ac7a94299fbdd01831c&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=ab495fd914d2468aa79818f8405d05bb&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=3244c05cddc4434c8b5d4d1be5747a55&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=2be73bec3cfc40ddbbbf918fb7a20198&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=a13761ab56a24f9092f9b0a1dbd60f3f&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=775b237d15f7492ab87cb234e75f993a&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=8557b253e3664903b35019ce1ccc7248&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=cad44d27773142b0a1f1146194a7d6e2&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=97bb5fbe549d416abacb2a0c03969233&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=fe21f77519214bbea8ef82c1bb194fd5&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=b030bb7a9cc9473a8f1e3d525ed50a61&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>성인 4000원 · 학생 3000원 · 65세 이상 7세 이하 장애인 무료</t>
   </si>
   <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=ff52847ea4b942e18ec0b7dd8f196d03&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=c022936aeddb40b7afc715b0dd76bc80&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e3ecb5d0dec34ef79d3e8af14a3ac70a&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=c9fa51b477db4374b32bfaa48c65ff88&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=18a7b06e25f1492d9b5ccb6b9b583033&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=8b72700aa88c4972bf33e215982c1d94&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=cca912d1ff9e4f588b1540b605ff4d5d&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>R석 55000원 · S석 40000원 · A석 30000원</t>
   </si>
   <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=cb38c94980af48718cf9c84a1661446c&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=7f925c1fbc8f4b9dbb47e910b2cfca0e&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=f66eedef3657487484282670b81c9836&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=d57ff34e3b2743529b24c42cf9846378&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=4abaf4ee155340f7b30a267f8c2c2fb2&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=a0e62f4f5d6346d5b305bbfa868f45c7&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=6f8f2794fb7c4bbfa8e4aff25d63b326&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e703eba4f4f24d7d8c4f6e6daa12659f&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=5045ab2fb3264d468f7b4c4d0b67d9b2&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>성인: 5000원 (만 25세 이상 - 만 60세 미만) 청소년 및 어린이: 3000원 (만 7세 이상 - 만 25세 미만) · 무료 특별 할인에 관한 내용은 온라인 예약 홈페이지(인터파크)나 현장 발권 창구에서 확인할 수 있습니다.</t>
   </si>
   <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=d5a69617ce994d88a6ddefd3bc27f7ea&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=8b7f3fd8e1ec4e12b0f97442db0b3177&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=b66f7836fd94443cb5fdb32e2095d616&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>성인: 3000원 (만 25세 이상 - 만 60세 미만) 청소년 및 어린이: 2000원 (만 7세 이상 - 만 25세 미만) · 무료 특별 할인에 관한 내용은 온라인 예약 홈페이지(인터파크)나 현장발권 창구에서 확인할 수 있습니다.</t>
   </si>
   <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=20a22d1ab43e458b9de77b8bebeadce8&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>관 람 료: 성인 20000· 청소년 15000원· 어린이 13000원</t>
   </si>
   <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=43f9ce6848df4dfe924fd6710d161dca&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>일반 10000원 · 중구민 5000원</t>
   </si>
   <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=657b72e1e8e94ad4ac769217d23a2d63&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=946851cdace141ebb0dcdbcdd0078b0c&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=3eaedbf9c8d74a458387872345b23694&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=8b1dc74204994ecda5dfc17753bc4fc4&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=b45759fb82ef4788b1ca96b3e92ba118&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=bc2d54bd7cda47f7a170ec02942681ca&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=05fe082236a84491a8fc9d0b6b95e6fb&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=0486dfd544ba4788b5817e1e201c0ae4&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=1fa2bced222f48ee95dd0ca22f7053cc&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=875cc054457c451b957d2d6dc6ad7076&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https:··culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=78fff005fcc84adf8c285e364c41705a&amp;thumb=Y</t>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=1e0a1c8144354f54b2149ac63e3a732d&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=53e2f4268a504b8cb2e496e7555747a9&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=a4f60226c52249b18ab6d2c7c4f9a047&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e71f14e3e6104f3d9550188c2331d4de&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e16befa6396b4fa39617e1861db1f9d8&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=44df2e99415c4ef7a800dfe6af313615&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=f81ed29c1c854c55887e6eb81bae05e6&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=044f25f849914b11a36f2a4f4cd4b529&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=17c3c2eb19b44d1090dba93c471ad4d1&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=0e9b31101b174a6a92102cb1fc0a61c3&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=4a58372fd6a74351834e29f8223e7ef3&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=ff893c6aad394f3bae082dd44f7d59b5&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e074630b4c35482c9ccdfbfd746b4db8&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=382557542d9241baa6b8b6a8a4fc462f&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=df63c7edbf1e4316a429df4178ab2378&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=77e1fdca64cb456fa6e4e4efaf77e736&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=af6f9985699f4f26b01d800c690d8f7a&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=f1e4568f277a4f2597c8e984ff3a8b06&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=fa40280c48084981820cb08f0019b0f8&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=b959c23eda9441fbb6167f95d8ac6238&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=0f113df285c34e799af2ce07384e81ee&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=bac76b5a65094b22b8e8881f8e2e10a3&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=16ec177cd0574fa1b4e57f5bc7498946&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=211700604d824608b9e1ef676284d06d&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=28678a8021624229b88101322fcd62e7&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=c6486360e5b24721a76afc04e9bce82b&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=6e4bcdb40dea40e585daacf0b55ddfcf&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=6d88fcec1bdb4d70956233b04513bb17&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=af7414944c7b4a8fa8e82790a9566afc&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=cff95356c24f41a0b0eb62690175f9d3&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e821749f8a7641778467d558ffaa139f&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=7db36210c0cf4b6f9a0b490fe02e663f&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e80c9a45dd4a4523b705b4f9f4fd0752&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=685c7e47ae9f48b598331db228b192fd&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=ef7f0eaeb0564fb5a9930160b4cc89b8&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=6ce5b19de0394395bf445630a73b2304&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=b843330a9b8b41338e5d899e7be565b2&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=b4da9bf5104f4969879524e9570a13a4&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=0e7ed93593294467a6fc43be6dd01d47&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=75aa754cc4d7428593f3183f68b62e07&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=1e8205a32b174811845c47e5d02e56a2&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=ec2f510b0c6f408796c1658fc71010b0&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=d386318db41b4606b934c4ce8a4ae4eb&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=bdaba5e5a27a4aae954076f726398350&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=54fbbca4f7bd4bf9921fbb61c4ec50f7&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=af21c1e53acb4355bfde8cf804e84c3c&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=3220d04e4f6c4b62b5ed02e89ace7ce9&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e7c0057bb43a4ffca8608de48f52728e&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=52c3ad9ab82a4bd6992ba0524f99f8db&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=347c30db4d2e4d1c9d0afb02cd6737cc&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=8b344606944642ceb6126918b03b960e&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=4a40f504967c4e989d571c43b6909430&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=194d3212068845bd8f438b3e5bf7a88d&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=ae2ff4fe07e344a49ba3a6f0c069c19a&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=a26ffb6676a344c9b14a9f1e5ff9355f&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=37ac364687b24b8cafee60c4dbbd699a&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=39aa2a987c144d6d8166f51f9b45c915&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=664e21afc62a43bb8a24e47f8bf44381&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=b01d5b432126461cacb24b49d07b9001&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=ed4bb2192d56496587b1db0254c8573c&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=5e68911f02cf4509aacdb42a4249cf7f&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=604d73fb75bf4e74b9334e0d8154b552&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=465d6772bbd74978aa8370b4e9f7f9dc&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=6cf76404b5184b31b69b174c0dd3bd4f&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=0963daffb4d54ac7a94299fbdd01831c&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=ab495fd914d2468aa79818f8405d05bb&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=3244c05cddc4434c8b5d4d1be5747a55&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=2be73bec3cfc40ddbbbf918fb7a20198&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=a13761ab56a24f9092f9b0a1dbd60f3f&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=775b237d15f7492ab87cb234e75f993a&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=8557b253e3664903b35019ce1ccc7248&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=cad44d27773142b0a1f1146194a7d6e2&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=97bb5fbe549d416abacb2a0c03969233&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=fe21f77519214bbea8ef82c1bb194fd5&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=b030bb7a9cc9473a8f1e3d525ed50a61&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=ff52847ea4b942e18ec0b7dd8f196d03&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=c022936aeddb40b7afc715b0dd76bc80&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e3ecb5d0dec34ef79d3e8af14a3ac70a&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=c9fa51b477db4374b32bfaa48c65ff88&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=18a7b06e25f1492d9b5ccb6b9b583033&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=8b72700aa88c4972bf33e215982c1d94&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=cca912d1ff9e4f588b1540b605ff4d5d&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=cb38c94980af48718cf9c84a1661446c&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=7f925c1fbc8f4b9dbb47e910b2cfca0e&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=f66eedef3657487484282670b81c9836&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=d57ff34e3b2743529b24c42cf9846378&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=4abaf4ee155340f7b30a267f8c2c2fb2&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=a0e62f4f5d6346d5b305bbfa868f45c7&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=6f8f2794fb7c4bbfa8e4aff25d63b326&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e703eba4f4f24d7d8c4f6e6daa12659f&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=5045ab2fb3264d468f7b4c4d0b67d9b2&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=d5a69617ce994d88a6ddefd3bc27f7ea&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=8b7f3fd8e1ec4e12b0f97442db0b3177&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=b66f7836fd94443cb5fdb32e2095d616&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=20a22d1ab43e458b9de77b8bebeadce8&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=43f9ce6848df4dfe924fd6710d161dca&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=657b72e1e8e94ad4ac769217d23a2d63&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=946851cdace141ebb0dcdbcdd0078b0c&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=3eaedbf9c8d74a458387872345b23694&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=8b1dc74204994ecda5dfc17753bc4fc4&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=b45759fb82ef4788b1ca96b3e92ba118&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=bc2d54bd7cda47f7a170ec02942681ca&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=05fe082236a84491a8fc9d0b6b95e6fb&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=0486dfd544ba4788b5817e1e201c0ae4&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=1fa2bced222f48ee95dd0ca22f7053cc&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=875cc054457c451b957d2d6dc6ad7076&amp;thumb=Y</t>
+  </si>
+  <si>
+    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=78fff005fcc84adf8c285e364c41705a&amp;thumb=Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1166,6 +1166,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1192,7 +1199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1206,6 +1213,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1391,7 +1401,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1400,7 +1410,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1676,8 +1686,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1730,8 +1740,8 @@
       <c r="D2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>257</v>
+      <c r="E2" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="F2" s="4">
         <v>44631</v>
@@ -1743,7 +1753,7 @@
         <v>61</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1760,7 +1770,7 @@
         <v>141</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F3" s="4">
         <v>44639</v>
@@ -1780,7 +1790,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>97</v>
@@ -1789,7 +1799,7 @@
         <v>137</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="F4" s="4">
         <v>44623</v>
@@ -1809,7 +1819,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>237</v>
@@ -1818,7 +1828,7 @@
         <v>144</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="F5" s="4">
         <v>44613</v>
@@ -1835,7 +1845,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>230</v>
@@ -1844,7 +1854,7 @@
         <v>195</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F6" s="4">
         <v>44533</v>
@@ -1864,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
@@ -1873,7 +1883,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="F7" s="4">
         <v>44628</v>
@@ -1902,7 +1912,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="F8" s="4">
         <v>44621</v>
@@ -1919,7 +1929,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>236</v>
@@ -1928,7 +1938,7 @@
         <v>162</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="F9" s="4">
         <v>44581</v>
@@ -1957,7 +1967,7 @@
         <v>55</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F10" s="4">
         <v>44639</v>
@@ -1977,7 +1987,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>229</v>
@@ -1986,7 +1996,7 @@
         <v>162</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F11" s="4">
         <v>44565</v>
@@ -2003,7 +2013,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>224</v>
@@ -2012,7 +2022,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="F12" s="4">
         <v>44481</v>
@@ -2041,7 +2051,7 @@
         <v>131</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="F13" s="4">
         <v>44650</v>
@@ -2067,7 +2077,7 @@
         <v>131</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="F14" s="4">
         <v>44650</v>
@@ -2084,7 +2094,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>248</v>
@@ -2093,7 +2103,7 @@
         <v>131</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="F15" s="4">
         <v>44639</v>
@@ -2110,7 +2120,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>246</v>
@@ -2119,7 +2129,7 @@
         <v>60</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="F16" s="4">
         <v>44547</v>
@@ -2139,7 +2149,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>222</v>
@@ -2148,7 +2158,7 @@
         <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F17" s="4">
         <v>44551</v>
@@ -2160,7 +2170,7 @@
         <v>149</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -2168,16 +2178,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>129</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F18" s="4">
         <v>44544</v>
@@ -2194,7 +2204,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>228</v>
@@ -2203,7 +2213,7 @@
         <v>168</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="F19" s="4">
         <v>44628</v>
@@ -2220,7 +2230,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>216</v>
@@ -2229,7 +2239,7 @@
         <v>168</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F20" s="4">
         <v>44625</v>
@@ -2246,7 +2256,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>249</v>
@@ -2255,7 +2265,7 @@
         <v>168</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F21" s="4">
         <v>44623</v>
@@ -2272,7 +2282,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>238</v>
@@ -2281,7 +2291,7 @@
         <v>168</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F22" s="4">
         <v>44625</v>
@@ -2298,7 +2308,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>252</v>
@@ -2307,7 +2317,7 @@
         <v>199</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F23" s="4">
         <v>44527</v>
@@ -2319,7 +2329,7 @@
         <v>176</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -2327,7 +2337,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>4</v>
@@ -2336,7 +2346,7 @@
         <v>168</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="F24" s="4">
         <v>44649</v>
@@ -2362,7 +2372,7 @@
         <v>155</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F25" s="4">
         <v>44625</v>
@@ -2382,7 +2392,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>94</v>
@@ -2391,7 +2401,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F26" s="4">
         <v>44551</v>
@@ -2408,7 +2418,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>214</v>
@@ -2417,7 +2427,7 @@
         <v>143</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="F27" s="4">
         <v>44509</v>
@@ -2434,7 +2444,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>106</v>
@@ -2443,7 +2453,7 @@
         <v>139</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="F28" s="4">
         <v>44614</v>
@@ -2469,7 +2479,7 @@
         <v>167</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F29" s="4">
         <v>44674</v>
@@ -2489,7 +2499,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>212</v>
@@ -2498,7 +2508,7 @@
         <v>153</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F30" s="4">
         <v>44634</v>
@@ -2527,7 +2537,7 @@
         <v>181</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F31" s="4">
         <v>44651</v>
@@ -2556,7 +2566,7 @@
         <v>153</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="F32" s="4">
         <v>44623</v>
@@ -2576,7 +2586,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>251</v>
@@ -2585,7 +2595,7 @@
         <v>144</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="F33" s="4">
         <v>44625</v>
@@ -2602,7 +2612,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>255</v>
@@ -2611,7 +2621,7 @@
         <v>132</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="F34" s="4">
         <v>44559</v>
@@ -2631,7 +2641,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>102</v>
@@ -2640,7 +2650,7 @@
         <v>158</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F35" s="4">
         <v>44637</v>
@@ -2660,7 +2670,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>101</v>
@@ -2669,7 +2679,7 @@
         <v>199</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="F36" s="4">
         <v>44610</v>
@@ -2689,7 +2699,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>239</v>
@@ -2698,7 +2708,7 @@
         <v>138</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F37" s="4">
         <v>44624</v>
@@ -2718,7 +2728,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>204</v>
@@ -2727,7 +2737,7 @@
         <v>47</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="F38" s="4">
         <v>44398</v>
@@ -2744,7 +2754,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>89</v>
@@ -2753,7 +2763,7 @@
         <v>156</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F39" s="4">
         <v>44623</v>
@@ -2773,7 +2783,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>209</v>
@@ -2782,7 +2792,7 @@
         <v>158</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F40" s="4">
         <v>44631</v>
@@ -2802,7 +2812,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>244</v>
@@ -2811,7 +2821,7 @@
         <v>158</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F41" s="4">
         <v>44630</v>
@@ -2831,7 +2841,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>225</v>
@@ -2840,7 +2850,7 @@
         <v>144</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="F42" s="4">
         <v>44512</v>
@@ -2866,7 +2876,7 @@
         <v>161</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F43" s="4">
         <v>44650</v>
@@ -2895,7 +2905,7 @@
         <v>153</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F44" s="4">
         <v>44569</v>
@@ -2924,7 +2934,7 @@
         <v>54</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="F45" s="4">
         <v>44632</v>
@@ -2944,7 +2954,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>215</v>
@@ -2953,7 +2963,7 @@
         <v>144</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F46" s="4">
         <v>44498</v>
@@ -2970,7 +2980,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>211</v>
@@ -2979,7 +2989,7 @@
         <v>52</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="F47" s="4">
         <v>44617</v>
@@ -2996,7 +3006,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>242</v>
@@ -3005,7 +3015,7 @@
         <v>140</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="F48" s="4">
         <v>44524</v>
@@ -3022,7 +3032,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>72</v>
@@ -3031,7 +3041,7 @@
         <v>153</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F49" s="4">
         <v>44635</v>
@@ -3051,7 +3061,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>220</v>
@@ -3060,7 +3070,7 @@
         <v>153</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="F50" s="4">
         <v>44630</v>
@@ -3089,7 +3099,7 @@
         <v>153</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F51" s="4">
         <v>44628</v>
@@ -3109,7 +3119,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>21</v>
@@ -3118,7 +3128,7 @@
         <v>153</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F52" s="4">
         <v>44632</v>
@@ -3138,7 +3148,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>205</v>
@@ -3147,7 +3157,7 @@
         <v>46</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F53" s="4">
         <v>44614</v>
@@ -3167,7 +3177,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>114</v>
@@ -3176,7 +3186,7 @@
         <v>143</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F54" s="4">
         <v>44509</v>
@@ -3193,7 +3203,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>48</v>
@@ -3202,7 +3212,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="F55" s="4">
         <v>44551</v>
@@ -3219,7 +3229,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>173</v>
@@ -3228,7 +3238,7 @@
         <v>49</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F56" s="4">
         <v>44474</v>
@@ -3254,7 +3264,7 @@
         <v>130</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F57" s="4">
         <v>44652</v>
@@ -3263,7 +3273,7 @@
         <v>44738</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>210</v>
@@ -3283,7 +3293,7 @@
         <v>153</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F58" s="4">
         <v>44590</v>
@@ -3312,7 +3322,7 @@
         <v>153</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="F59" s="4">
         <v>44621</v>
@@ -3341,7 +3351,7 @@
         <v>130</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F60" s="4">
         <v>44647</v>
@@ -3361,7 +3371,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>234</v>
@@ -3370,7 +3380,7 @@
         <v>157</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F61" s="4">
         <v>44596</v>
@@ -3382,7 +3392,7 @@
         <v>90</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -3390,7 +3400,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>243</v>
@@ -3399,7 +3409,7 @@
         <v>64</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F62" s="4">
         <v>44625</v>
@@ -3416,7 +3426,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>40</v>
@@ -3425,7 +3435,7 @@
         <v>153</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F63" s="4">
         <v>44633</v>
@@ -3454,7 +3464,7 @@
         <v>172</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F64" s="4">
         <v>44658</v>
@@ -3474,7 +3484,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>109</v>
@@ -3483,7 +3493,7 @@
         <v>162</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F65" s="4">
         <v>44337</v>
@@ -3500,7 +3510,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>203</v>
@@ -3509,7 +3519,7 @@
         <v>127</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F66" s="4">
         <v>44588</v>
@@ -3526,7 +3536,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>218</v>
@@ -3535,7 +3545,7 @@
         <v>53</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F67" s="4">
         <v>44600</v>
@@ -3552,7 +3562,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>146</v>
@@ -3561,7 +3571,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F68" s="4">
         <v>44519</v>
@@ -3578,7 +3588,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>110</v>
@@ -3587,7 +3597,7 @@
         <v>132</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F69" s="4">
         <v>44600</v>
@@ -3607,7 +3617,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>219</v>
@@ -3616,7 +3626,7 @@
         <v>132</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F70" s="4">
         <v>44498</v>
@@ -3636,7 +3646,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>227</v>
@@ -3645,7 +3655,7 @@
         <v>50</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F71" s="4">
         <v>44644</v>
@@ -3662,7 +3672,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>116</v>
@@ -3671,7 +3681,7 @@
         <v>129</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F72" s="4">
         <v>44644</v>
@@ -3688,7 +3698,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>13</v>
@@ -3697,7 +3707,7 @@
         <v>144</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F73" s="4">
         <v>44562</v>
@@ -3723,7 +3733,7 @@
         <v>147</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F74" s="4">
         <v>44562</v>
@@ -3752,7 +3762,7 @@
         <v>147</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F75" s="4">
         <v>44562</v>
@@ -3772,7 +3782,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>148</v>
@@ -3781,7 +3791,7 @@
         <v>24</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F76" s="4">
         <v>44523</v>
@@ -3793,7 +3803,7 @@
         <v>136</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>341</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -3801,7 +3811,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>84</v>
@@ -3810,7 +3820,7 @@
         <v>153</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F77" s="4">
         <v>44624</v>
@@ -3830,7 +3840,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>71</v>
@@ -3839,7 +3849,7 @@
         <v>189</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F78" s="4">
         <v>44602</v>
@@ -3856,7 +3866,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>27</v>
@@ -3865,7 +3875,7 @@
         <v>153</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F79" s="4">
         <v>44629</v>
@@ -3885,7 +3895,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>233</v>
@@ -3894,7 +3904,7 @@
         <v>126</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F80" s="4">
         <v>44600</v>
@@ -3920,7 +3930,7 @@
         <v>155</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F81" s="4">
         <v>44631</v>
@@ -3940,7 +3950,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>35</v>
@@ -3949,7 +3959,7 @@
         <v>153</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F82" s="4">
         <v>44642</v>
@@ -3978,7 +3988,7 @@
         <v>153</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F83" s="4">
         <v>44646</v>
@@ -3990,7 +4000,7 @@
         <v>119</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>349</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -4007,7 +4017,7 @@
         <v>141</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F84" s="4">
         <v>44626</v>
@@ -4027,7 +4037,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>31</v>
@@ -4036,7 +4046,7 @@
         <v>153</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F85" s="4">
         <v>44626</v>
@@ -4056,7 +4066,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>43</v>
@@ -4065,7 +4075,7 @@
         <v>153</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F86" s="4">
         <v>44631</v>
@@ -4085,7 +4095,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>81</v>
@@ -4094,7 +4104,7 @@
         <v>153</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F87" s="4">
         <v>44640</v>
@@ -4114,7 +4124,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>86</v>
@@ -4123,7 +4133,7 @@
         <v>144</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F88" s="4">
         <v>44611</v>
@@ -4140,7 +4150,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>91</v>
@@ -4149,7 +4159,7 @@
         <v>144</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F89" s="4">
         <v>44604</v>
@@ -4169,7 +4179,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>254</v>
@@ -4178,7 +4188,7 @@
         <v>29</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F90" s="4">
         <v>44600</v>
@@ -4195,7 +4205,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>118</v>
@@ -4204,7 +4214,7 @@
         <v>199</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F91" s="4">
         <v>44607</v>
@@ -4221,7 +4231,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>66</v>
@@ -4230,7 +4240,7 @@
         <v>163</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F92" s="4">
         <v>44537</v>
@@ -4242,7 +4252,7 @@
         <v>159</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>359</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -4250,7 +4260,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>253</v>
@@ -4259,7 +4269,7 @@
         <v>126</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F93" s="4">
         <v>44621</v>
@@ -4276,7 +4286,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>123</v>
@@ -4285,7 +4295,7 @@
         <v>174</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F94" s="4">
         <v>44540</v>
@@ -4302,7 +4312,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>51</v>
@@ -4311,7 +4321,7 @@
         <v>163</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F95" s="4">
         <v>44551</v>
@@ -4323,7 +4333,7 @@
         <v>159</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>363</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -4331,7 +4341,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>206</v>
@@ -4340,7 +4350,7 @@
         <v>153</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F96" s="4">
         <v>44561</v>
@@ -4352,7 +4362,7 @@
         <v>10</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>365</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -4369,7 +4379,7 @@
         <v>130</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F97" s="4">
         <v>44629</v>
@@ -4381,7 +4391,7 @@
         <v>183</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>367</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -4389,7 +4399,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>226</v>
@@ -4473,7 +4483,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>73</v>
@@ -4589,7 +4599,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>241</v>
@@ -4647,7 +4657,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>88</v>
@@ -4673,7 +4683,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>104</v>

--- a/project/Data/project_program.xlsx
+++ b/project/Data/project_program.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ph\BigData\project\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC7B559-4E7E-40B8-8FB1-807C3EEF212B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="72" windowWidth="9816" windowHeight="11676" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12900" yWindow="75" windowWidth="9810" windowHeight="11670" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">program!$A$1:$I$108</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1174,7 +1171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1434,7 +1431,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1443,7 +1440,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1718,24 +1715,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B86" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>74</v>
       </c>
@@ -1764,262 +1761,261 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>367</v>
+        <v>148</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="F2" s="4">
-        <v>44631</v>
+        <v>44623</v>
       </c>
       <c r="G2" s="4">
-        <v>44633</v>
+        <v>44623</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>373</v>
+        <v>255</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>264</v>
+        <v>148</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="F3" s="4">
-        <v>44639</v>
+        <v>44624</v>
       </c>
       <c r="G3" s="4">
-        <v>44639</v>
+        <v>44624</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>368</v>
+        <v>134</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="F4" s="4">
-        <v>44623</v>
+        <v>44614</v>
       </c>
       <c r="G4" s="4">
-        <v>44644</v>
+        <v>44625</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>369</v>
+        <v>51</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="F5" s="4">
-        <v>44613</v>
+        <v>44600</v>
       </c>
       <c r="G5" s="4">
-        <v>44722</v>
+        <v>44625</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>265</v>
+        <v>139</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="F6" s="4">
-        <v>44533</v>
+        <v>44604</v>
       </c>
       <c r="G6" s="4">
-        <v>44675</v>
+        <v>44625</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>372</v>
+        <v>186</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>370</v>
+        <v>136</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="F7" s="4">
-        <v>44628</v>
+        <v>44625</v>
       </c>
       <c r="G7" s="4">
-        <v>44647</v>
+        <v>44625</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>266</v>
+        <v>360</v>
       </c>
       <c r="F8" s="4">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="G8" s="4">
-        <v>44651</v>
+        <v>44625</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F9" s="4">
-        <v>44581</v>
+        <v>44544</v>
       </c>
       <c r="G9" s="4">
-        <v>44637</v>
+        <v>44626</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>214</v>
+        <v>67</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="F10" s="4">
-        <v>44639</v>
+        <v>44625</v>
       </c>
       <c r="G10" s="4">
-        <v>44639</v>
+        <v>44626</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2027,25 +2023,25 @@
         <v>251</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="F11" s="4">
-        <v>44565</v>
+        <v>44509</v>
       </c>
       <c r="G11" s="4">
-        <v>44742</v>
+        <v>44626</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2053,106 +2049,110 @@
         <v>251</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="F12" s="4">
-        <v>44481</v>
+        <v>44498</v>
       </c>
       <c r="G12" s="4">
-        <v>44801</v>
+        <v>44626</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="F13" s="4">
-        <v>44650</v>
+        <v>44509</v>
       </c>
       <c r="G13" s="4">
-        <v>44650</v>
+        <v>44626</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="F14" s="4">
-        <v>44650</v>
+        <v>44626</v>
       </c>
       <c r="G14" s="4">
-        <v>44650</v>
+        <v>44626</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>273</v>
+        <v>343</v>
       </c>
       <c r="F15" s="4">
-        <v>44639</v>
+        <v>44626</v>
       </c>
       <c r="G15" s="4">
-        <v>44716</v>
+        <v>44626</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2160,28 +2160,28 @@
         <v>251</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>274</v>
+        <v>350</v>
       </c>
       <c r="F16" s="4">
-        <v>44547</v>
+        <v>44537</v>
       </c>
       <c r="G16" s="4">
-        <v>44647</v>
+        <v>44626</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2189,578 +2189,598 @@
         <v>251</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>275</v>
+        <v>363</v>
       </c>
       <c r="F17" s="4">
-        <v>44551</v>
+        <v>44464</v>
       </c>
       <c r="G17" s="4">
-        <v>44689</v>
+        <v>44626</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>253</v>
+        <v>104</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="F18" s="4">
-        <v>44544</v>
+        <v>44628</v>
       </c>
       <c r="G18" s="4">
-        <v>44626</v>
+        <v>44628</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>221</v>
+        <v>55</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>277</v>
+        <v>364</v>
       </c>
       <c r="F19" s="4">
         <v>44628</v>
       </c>
       <c r="G19" s="4">
-        <v>44637</v>
+        <v>44628</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="F20" s="4">
-        <v>44625</v>
+        <v>44629</v>
       </c>
       <c r="G20" s="4">
-        <v>44640</v>
+        <v>44629</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="F21" s="4">
-        <v>44623</v>
+        <v>44629</v>
       </c>
       <c r="G21" s="4">
-        <v>44644</v>
+        <v>44629</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+      <c r="I21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>231</v>
+        <v>255</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="F22" s="4">
-        <v>44625</v>
+        <v>44630</v>
       </c>
       <c r="G22" s="4">
-        <v>44646</v>
+        <v>44630</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>281</v>
+        <v>344</v>
       </c>
       <c r="F23" s="4">
-        <v>44527</v>
+        <v>44631</v>
       </c>
       <c r="G23" s="4">
-        <v>44640</v>
+        <v>44631</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>2</v>
+        <v>216</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="F24" s="4">
-        <v>44649</v>
+        <v>44630</v>
       </c>
       <c r="G24" s="4">
-        <v>44678</v>
+        <v>44631</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>187</v>
+        <v>255</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="F25" s="4">
-        <v>44625</v>
+        <v>44632</v>
       </c>
       <c r="G25" s="4">
-        <v>44626</v>
+        <v>44632</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="F26" s="4">
-        <v>44551</v>
+        <v>44631</v>
       </c>
       <c r="G26" s="4">
-        <v>44650</v>
+        <v>44632</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+      <c r="I26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="F27" s="4">
-        <v>44509</v>
+        <v>44611</v>
       </c>
       <c r="G27" s="4">
-        <v>44626</v>
+        <v>44632</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>102</v>
+        <v>181</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>286</v>
+        <v>361</v>
       </c>
       <c r="F28" s="4">
-        <v>44614</v>
+        <v>44632</v>
       </c>
       <c r="G28" s="4">
-        <v>44625</v>
+        <v>44632</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+      <c r="I28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>375</v>
+        <v>248</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>287</v>
+        <v>125</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>367</v>
       </c>
       <c r="F29" s="4">
-        <v>44674</v>
+        <v>44631</v>
       </c>
       <c r="G29" s="4">
-        <v>44674</v>
+        <v>44633</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>206</v>
+        <v>251</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>377</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F30" s="4">
-        <v>44634</v>
+        <v>44624</v>
       </c>
       <c r="G30" s="4">
-        <v>44721</v>
+        <v>44633</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F31" s="4">
-        <v>44651</v>
+        <v>44398</v>
       </c>
       <c r="G31" s="4">
-        <v>44652</v>
+        <v>44633</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="F32" s="4">
-        <v>44623</v>
+        <v>44632</v>
       </c>
       <c r="G32" s="4">
-        <v>44623</v>
+        <v>44633</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="F33" s="4">
-        <v>44625</v>
+        <v>44617</v>
       </c>
       <c r="G33" s="4">
-        <v>44723</v>
+        <v>44633</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F34" s="4">
-        <v>44559</v>
+        <v>44590</v>
       </c>
       <c r="G34" s="4">
-        <v>44836</v>
+        <v>44633</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="F35" s="4">
-        <v>44637</v>
+        <v>44633</v>
       </c>
       <c r="G35" s="4">
-        <v>44665</v>
+        <v>44633</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>374</v>
+      <c r="C36" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F36" s="4">
-        <v>44610</v>
+        <v>44590</v>
       </c>
       <c r="G36" s="4">
-        <v>44640</v>
+        <v>44633</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>377</v>
+        <v>255</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F37" s="4">
-        <v>44624</v>
+        <v>44635</v>
       </c>
       <c r="G37" s="4">
-        <v>44633</v>
+        <v>44635</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2768,167 +2788,171 @@
         <v>251</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F38" s="4">
-        <v>44398</v>
+        <v>44623</v>
       </c>
       <c r="G38" s="4">
-        <v>44633</v>
+        <v>44636</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+      <c r="I38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>87</v>
+        <v>229</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="F39" s="4">
-        <v>44623</v>
+        <v>44581</v>
       </c>
       <c r="G39" s="4">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="F40" s="4">
-        <v>44631</v>
+        <v>44628</v>
       </c>
       <c r="G40" s="4">
-        <v>44659</v>
+        <v>44637</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="F41" s="4">
-        <v>44630</v>
+        <v>44614</v>
       </c>
       <c r="G41" s="4">
-        <v>44658</v>
+        <v>44637</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>300</v>
+        <v>357</v>
       </c>
       <c r="F42" s="4">
-        <v>44512</v>
+        <v>44637</v>
       </c>
       <c r="G42" s="4">
-        <v>44865</v>
+        <v>44637</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+      <c r="I42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>207</v>
+        <v>248</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>301</v>
+        <v>136</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="F43" s="4">
-        <v>44650</v>
+        <v>44639</v>
       </c>
       <c r="G43" s="4">
-        <v>44650</v>
+        <v>44639</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2936,83 +2960,83 @@
         <v>248</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="F44" s="4">
-        <v>44569</v>
+        <v>44639</v>
       </c>
       <c r="G44" s="4">
-        <v>44640</v>
+        <v>44639</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>187</v>
+        <v>255</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>242</v>
+        <v>71</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>303</v>
+        <v>359</v>
       </c>
       <c r="F45" s="4">
-        <v>44632</v>
+        <v>44639</v>
       </c>
       <c r="G45" s="4">
-        <v>44633</v>
+        <v>44639</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="F46" s="4">
-        <v>44498</v>
+        <v>44625</v>
       </c>
       <c r="G46" s="4">
-        <v>44626</v>
+        <v>44640</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3020,248 +3044,255 @@
         <v>251</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="F47" s="4">
-        <v>44617</v>
+        <v>44527</v>
       </c>
       <c r="G47" s="4">
-        <v>44633</v>
+        <v>44640</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+      <c r="I47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>234</v>
+      <c r="C48" s="6" t="s">
+        <v>374</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F48" s="4">
-        <v>44524</v>
+        <v>44610</v>
       </c>
       <c r="G48" s="4">
-        <v>45619</v>
+        <v>44640</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+      <c r="I48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>148</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F49" s="4">
-        <v>44635</v>
+        <v>44569</v>
       </c>
       <c r="G49" s="4">
-        <v>44635</v>
+        <v>44640</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>371</v>
+      <c r="C50" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>148</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="F50" s="4">
-        <v>44630</v>
+        <v>44640</v>
       </c>
       <c r="G50" s="4">
-        <v>44630</v>
+        <v>44640</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="F51" s="4">
-        <v>44628</v>
+        <v>44551</v>
       </c>
       <c r="G51" s="4">
-        <v>44628</v>
+        <v>44640</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>310</v>
+        <v>366</v>
       </c>
       <c r="F52" s="4">
-        <v>44632</v>
+        <v>44400</v>
       </c>
       <c r="G52" s="4">
-        <v>44632</v>
+        <v>44640</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="F53" s="4">
-        <v>44614</v>
+        <v>44642</v>
       </c>
       <c r="G53" s="4">
-        <v>44637</v>
+        <v>44642</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>312</v>
+        <v>132</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="F54" s="4">
-        <v>44509</v>
+        <v>44623</v>
       </c>
       <c r="G54" s="4">
-        <v>44626</v>
+        <v>44644</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+        <v>191</v>
+      </c>
+      <c r="I54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="F55" s="4">
-        <v>44551</v>
+        <v>44623</v>
       </c>
       <c r="G55" s="4">
-        <v>44689</v>
+        <v>44644</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3269,254 +3300,244 @@
         <v>251</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="F56" s="4">
-        <v>44474</v>
+        <v>44588</v>
       </c>
       <c r="G56" s="4">
-        <v>44731</v>
+        <v>44645</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="F57" s="4">
-        <v>44652</v>
+        <v>44625</v>
       </c>
       <c r="G57" s="4">
-        <v>44738</v>
+        <v>44646</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F58" s="4">
-        <v>44590</v>
+        <v>44625</v>
       </c>
       <c r="G58" s="4">
-        <v>44633</v>
+        <v>44646</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>232</v>
+        <v>251</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>317</v>
+        <v>14</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>370</v>
       </c>
       <c r="F59" s="4">
-        <v>44621</v>
+        <v>44628</v>
       </c>
       <c r="G59" s="4">
-        <v>44710</v>
+        <v>44647</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="F60" s="4">
+        <v>44547</v>
+      </c>
+      <c r="G60" s="4">
         <v>44647</v>
       </c>
-      <c r="G60" s="4">
-        <v>44738</v>
-      </c>
       <c r="H60" s="3" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F61" s="4">
-        <v>44596</v>
+        <v>44519</v>
       </c>
       <c r="G61" s="4">
-        <v>44651</v>
+        <v>44647</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+        <v>179</v>
+      </c>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="F62" s="4">
-        <v>44625</v>
+        <v>44516</v>
       </c>
       <c r="G62" s="4">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="F63" s="4">
-        <v>44633</v>
+        <v>44650</v>
       </c>
       <c r="G63" s="4">
-        <v>44633</v>
+        <v>44650</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="F64" s="4">
-        <v>44658</v>
+        <v>44650</v>
       </c>
       <c r="G64" s="4">
-        <v>44658</v>
+        <v>44650</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3524,161 +3545,165 @@
         <v>251</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="F65" s="4">
-        <v>44337</v>
+        <v>44551</v>
       </c>
       <c r="G65" s="4">
-        <v>45291</v>
+        <v>44650</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="F66" s="4">
-        <v>44588</v>
+        <v>44650</v>
       </c>
       <c r="G66" s="4">
-        <v>44645</v>
+        <v>44650</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="I66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="F67" s="4">
-        <v>44600</v>
+        <v>44621</v>
       </c>
       <c r="G67" s="4">
-        <v>44625</v>
+        <v>44651</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F68" s="4">
-        <v>44519</v>
+        <v>44596</v>
       </c>
       <c r="G68" s="4">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+      <c r="I68" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="F69" s="4">
-        <v>44600</v>
+        <v>44602</v>
       </c>
       <c r="G69" s="4">
-        <v>44742</v>
+        <v>44651</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="F70" s="4">
-        <v>44498</v>
+        <v>44651</v>
       </c>
       <c r="G70" s="4">
-        <v>44926</v>
+        <v>44652</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3686,135 +3711,142 @@
         <v>251</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="F71" s="4">
-        <v>44644</v>
+        <v>44630</v>
       </c>
       <c r="G71" s="4">
-        <v>44710</v>
+        <v>44658</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+      <c r="I71" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F72" s="4">
-        <v>44644</v>
+        <v>44658</v>
       </c>
       <c r="G72" s="4">
-        <v>44703</v>
+        <v>44658</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+      <c r="I72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="F73" s="4">
-        <v>44562</v>
+        <v>44631</v>
       </c>
       <c r="G73" s="4">
-        <v>44916</v>
+        <v>44659</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+      <c r="I73" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="F74" s="4">
-        <v>44562</v>
+        <v>44646</v>
       </c>
       <c r="G74" s="4">
-        <v>44926</v>
+        <v>44661</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="F75" s="4">
-        <v>44562</v>
+        <v>44540</v>
       </c>
       <c r="G75" s="4">
-        <v>44926</v>
+        <v>44661</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3822,112 +3854,113 @@
         <v>251</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="F76" s="4">
-        <v>44523</v>
+        <v>44637</v>
       </c>
       <c r="G76" s="4">
-        <v>44681</v>
+        <v>44665</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F77" s="4">
-        <v>44624</v>
+        <v>44600</v>
       </c>
       <c r="G77" s="4">
-        <v>44624</v>
+        <v>44668</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>69</v>
+      <c r="C78" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="F78" s="4">
-        <v>44602</v>
+        <v>44561</v>
       </c>
       <c r="G78" s="4">
-        <v>44651</v>
+        <v>44668</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+      <c r="I78" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>25</v>
+        <v>186</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="F79" s="4">
-        <v>44629</v>
+        <v>44674</v>
       </c>
       <c r="G79" s="4">
-        <v>44629</v>
+        <v>44674</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -3935,390 +3968,385 @@
         <v>251</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>338</v>
+        <v>190</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="F80" s="4">
-        <v>44600</v>
+        <v>44533</v>
       </c>
       <c r="G80" s="4">
-        <v>44701</v>
+        <v>44675</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+        <v>197</v>
+      </c>
+      <c r="I80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="F81" s="4">
-        <v>44631</v>
+        <v>44649</v>
       </c>
       <c r="G81" s="4">
-        <v>44632</v>
+        <v>44678</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="F82" s="4">
-        <v>44642</v>
+        <v>44607</v>
       </c>
       <c r="G82" s="4">
-        <v>44642</v>
+        <v>44680</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F83" s="4">
-        <v>44646</v>
+        <v>44523</v>
       </c>
       <c r="G83" s="4">
-        <v>44661</v>
+        <v>44681</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>342</v>
+        <v>275</v>
       </c>
       <c r="F84" s="4">
-        <v>44626</v>
+        <v>44551</v>
       </c>
       <c r="G84" s="4">
-        <v>44626</v>
+        <v>44689</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="F85" s="4">
-        <v>44626</v>
+        <v>44551</v>
       </c>
       <c r="G85" s="4">
-        <v>44626</v>
+        <v>44689</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F86" s="4">
-        <v>44631</v>
+        <v>44600</v>
       </c>
       <c r="G86" s="4">
-        <v>44631</v>
+        <v>44701</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="F87" s="4">
-        <v>44640</v>
+        <v>44644</v>
       </c>
       <c r="G87" s="4">
-        <v>44640</v>
+        <v>44703</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="F88" s="4">
-        <v>44611</v>
+        <v>44621</v>
       </c>
       <c r="G88" s="4">
-        <v>44632</v>
+        <v>44710</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+      <c r="I88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="F89" s="4">
-        <v>44604</v>
+        <v>44644</v>
       </c>
       <c r="G89" s="4">
-        <v>44625</v>
+        <v>44710</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
       <c r="F90" s="4">
-        <v>44600</v>
+        <v>44639</v>
       </c>
       <c r="G90" s="4">
-        <v>44668</v>
+        <v>44716</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>349</v>
+        <v>288</v>
       </c>
       <c r="F91" s="4">
-        <v>44607</v>
+        <v>44634</v>
       </c>
       <c r="G91" s="4">
-        <v>44680</v>
+        <v>44721</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+      <c r="I91" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>350</v>
+        <v>139</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="F92" s="4">
-        <v>44537</v>
+        <v>44613</v>
       </c>
       <c r="G92" s="4">
-        <v>44626</v>
+        <v>44722</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="F93" s="4">
-        <v>44621</v>
+        <v>44625</v>
       </c>
       <c r="G93" s="4">
-        <v>44801</v>
+        <v>44723</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4326,370 +4354,365 @@
         <v>251</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="F94" s="4">
-        <v>44540</v>
+        <v>44474</v>
       </c>
       <c r="G94" s="4">
-        <v>44661</v>
+        <v>44731</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="F95" s="4">
-        <v>44551</v>
+        <v>44652</v>
       </c>
       <c r="G95" s="4">
-        <v>44640</v>
+        <v>44738</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>378</v>
+        <v>182</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="F96" s="4">
-        <v>44561</v>
+        <v>44647</v>
       </c>
       <c r="G96" s="4">
-        <v>44668</v>
+        <v>44738</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>355</v>
+        <v>269</v>
       </c>
       <c r="F97" s="4">
-        <v>44629</v>
+        <v>44565</v>
       </c>
       <c r="G97" s="4">
-        <v>44629</v>
+        <v>44742</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="F98" s="4">
-        <v>44590</v>
+        <v>44600</v>
       </c>
       <c r="G98" s="4">
-        <v>44633</v>
+        <v>44742</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="I98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>357</v>
+        <v>270</v>
       </c>
       <c r="F99" s="4">
-        <v>44637</v>
+        <v>44481</v>
       </c>
       <c r="G99" s="4">
-        <v>44637</v>
+        <v>44801</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>186</v>
+        <v>251</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F100" s="4">
-        <v>44625</v>
+        <v>44621</v>
       </c>
       <c r="G100" s="4">
-        <v>44625</v>
+        <v>44801</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>359</v>
+        <v>292</v>
       </c>
       <c r="F101" s="4">
-        <v>44639</v>
+        <v>44559</v>
       </c>
       <c r="G101" s="4">
-        <v>44639</v>
+        <v>44836</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="F102" s="4">
-        <v>44625</v>
+        <v>44512</v>
       </c>
       <c r="G102" s="4">
-        <v>44625</v>
+        <v>44865</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>376</v>
+        <v>250</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="F103" s="4">
-        <v>44632</v>
+        <v>44562</v>
       </c>
       <c r="G103" s="4">
-        <v>44632</v>
+        <v>44916</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+        <v>191</v>
+      </c>
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="F104" s="4">
-        <v>44630</v>
+        <v>44498</v>
       </c>
       <c r="G104" s="4">
-        <v>44631</v>
+        <v>44926</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="F105" s="4">
-        <v>44464</v>
+        <v>44562</v>
       </c>
       <c r="G105" s="4">
-        <v>44626</v>
+        <v>44926</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="F106" s="4">
-        <v>44628</v>
+        <v>44562</v>
       </c>
       <c r="G106" s="4">
-        <v>44628</v>
+        <v>44926</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4697,25 +4720,25 @@
         <v>251</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F107" s="4">
-        <v>44516</v>
+        <v>44337</v>
       </c>
       <c r="G107" s="4">
-        <v>44647</v>
+        <v>45291</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4723,36 +4746,41 @@
         <v>251</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>366</v>
+        <v>306</v>
       </c>
       <c r="F108" s="4">
-        <v>44400</v>
+        <v>44524</v>
       </c>
       <c r="G108" s="4">
-        <v>44640</v>
+        <v>45619</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I108">
+  <autoFilter ref="A1:I108">
+    <sortState ref="A2:I108">
+      <sortCondition ref="G1:G108"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:I108">
     <sortCondition ref="C2:C108"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="https://culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=53e2f4268a504b8cb2e496e7555747a9&amp;thumb=Y" xr:uid="{4E78A812-31DA-46A5-8327-C4B1B1C9AA0E}"/>
-    <hyperlink ref="E6" r:id="rId2" display="https://culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e16befa6396b4fa39617e1861db1f9d8&amp;thumb=Y" xr:uid="{3199B910-C17F-4A44-A684-0E81E651C110}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{00B209D3-6184-4F14-98FB-008FC326F428}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{F7922664-4FF6-4B96-AF52-0B73F485209C}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{E2180B5E-27AB-4A72-90CB-4C0B7FDCA37F}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{DEA6A916-2A32-4BCD-8E1D-D5EA8B115F19}"/>
+    <hyperlink ref="E43" r:id="rId1" display="https://culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=53e2f4268a504b8cb2e496e7555747a9&amp;thumb=Y"/>
+    <hyperlink ref="E80" r:id="rId2" display="https://culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e16befa6396b4fa39617e1861db1f9d8&amp;thumb=Y"/>
+    <hyperlink ref="E29" r:id="rId3"/>
+    <hyperlink ref="E54" r:id="rId4"/>
+    <hyperlink ref="E92" r:id="rId5"/>
+    <hyperlink ref="E59" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/project/Data/project_program.xlsx
+++ b/project/Data/project_program.xlsx
@@ -10,14 +10,14 @@
     <sheet name="program" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">program!$A$1:$I$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">program!$A$1:$I$72</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="271">
   <si>
     <t>3월 한성백제박물관 문화시네마</t>
   </si>
@@ -31,9 +31,6 @@
     <t>어른 3000원   청소년 1800원   어린이 1200원</t>
   </si>
   <si>
-    <t>뮤지컬 앨리스 스튜디오</t>
-  </si>
-  <si>
     <t>VIP석 55000원 R석 44000원</t>
   </si>
   <si>
@@ -46,18 +43,12 @@
     <t>만4세 이상</t>
   </si>
   <si>
-    <t xml:space="preserve">만 7세 이상 </t>
-  </si>
-  <si>
     <t>6세 이상 어린이</t>
   </si>
   <si>
     <t xml:space="preserve">서울역사박물관대학 </t>
   </si>
   <si>
-    <t xml:space="preserve">미취학아동 입장불가 </t>
-  </si>
-  <si>
     <t>서울생활문화센터 서교</t>
   </si>
   <si>
@@ -70,33 +61,15 @@
     <t>전석 20000원</t>
   </si>
   <si>
-    <t>전석 30000원</t>
-  </si>
-  <si>
     <t>서울새활용플라자</t>
   </si>
   <si>
-    <t>김아름 피아노 독주회</t>
-  </si>
-  <si>
-    <t>만 7세 이상 입장</t>
-  </si>
-  <si>
-    <t>만 7세이상 입장가능</t>
-  </si>
-  <si>
     <t>코리아나 화장박물관</t>
   </si>
   <si>
     <t>PlaceName</t>
   </si>
   <si>
-    <t xml:space="preserve">전석 20000원 </t>
-  </si>
-  <si>
-    <t>신수정 피아노 독주회</t>
-  </si>
-  <si>
     <t>종로구립 박노수미술관</t>
   </si>
   <si>
@@ -106,9 +79,6 @@
     <t>ProgramName</t>
   </si>
   <si>
-    <t>이동욱 호른 독주회</t>
-  </si>
-  <si>
     <t>테너 존노 리사이틀</t>
   </si>
   <si>
@@ -121,42 +91,21 @@
     <t>양혜순 비올라 독주회</t>
   </si>
   <si>
-    <t>만 13세 이상관람</t>
-  </si>
-  <si>
-    <t>톤픽쳐 토크콘서트</t>
-  </si>
-  <si>
     <t>만 5세 이상 관람가</t>
   </si>
   <si>
-    <t xml:space="preserve">전석 20000원  </t>
-  </si>
-  <si>
-    <t>베이스 장영근 독창회</t>
-  </si>
-  <si>
     <t>전석 10000원</t>
   </si>
   <si>
     <t>12만원 (3개월)</t>
   </si>
   <si>
-    <t>임진영 피아노 독주회</t>
-  </si>
-  <si>
-    <t>8세이상 입장가능</t>
-  </si>
-  <si>
     <t>미취학아동입장불가</t>
   </si>
   <si>
     <t>노원문화예술회관</t>
   </si>
   <si>
-    <t>국립현대미술관 서울</t>
-  </si>
-  <si>
     <t>라운지 프로젝트</t>
   </si>
   <si>
@@ -169,24 +118,9 @@
     <t>漆 아시아를 칠하다</t>
   </si>
   <si>
-    <t>경춘선숲길 갤러리</t>
-  </si>
-  <si>
-    <t>서리풀청년아트갤러리</t>
-  </si>
-  <si>
-    <t>갈산문화예술센터</t>
-  </si>
-  <si>
     <t>은평문화예술회관</t>
   </si>
   <si>
-    <t>초등학생 이상 관람</t>
-  </si>
-  <si>
-    <t>피아노 앙상블 S</t>
-  </si>
-  <si>
     <t>초등학생 3학년 이상</t>
   </si>
   <si>
@@ -196,42 +130,27 @@
     <t>서울도시건축전시관</t>
   </si>
   <si>
-    <t>12세 이상 관람가</t>
-  </si>
-  <si>
     <t>입장료 4000원</t>
   </si>
   <si>
-    <t>36개월 이상 관람</t>
-  </si>
-  <si>
     <t>서울하수도과학관</t>
   </si>
   <si>
     <t>무료 ※사전예약제</t>
   </si>
   <si>
-    <t>조선의 승려 장인</t>
-  </si>
-  <si>
     <t>서울생활사박물관</t>
   </si>
   <si>
     <t>서울상상나라 입장객</t>
   </si>
   <si>
-    <t>1919 필라델피아</t>
-  </si>
-  <si>
     <t>8강좌 통합 30000원(꾸러미 미포함) 60000원(꾸러미 포함)</t>
   </si>
   <si>
     <t>시민청 소리갤러리 전시 도시 도심心</t>
   </si>
   <si>
-    <t>권효진 귀국 피아노 독주회</t>
-  </si>
-  <si>
     <t>트럼펫터 노민호의 봄의향연</t>
   </si>
   <si>
@@ -250,9 +169,6 @@
     <t>TargetAudience</t>
   </si>
   <si>
-    <t>2022 트리오 바스 콘서트</t>
-  </si>
-  <si>
     <t>서울풍물시장 전통문화체험관</t>
   </si>
   <si>
@@ -262,21 +178,6 @@
     <t>초등학생 동반 가족 누구나</t>
   </si>
   <si>
-    <t>만 7세 이상 관람 가능</t>
-  </si>
-  <si>
-    <t>소프라노 김지영 독창회</t>
-  </si>
-  <si>
-    <t xml:space="preserve">만 7세 이상 관람 가능 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">제 30기 중학생 인턴제 </t>
-  </si>
-  <si>
-    <t>음악 소울넘버를 만나다</t>
-  </si>
-  <si>
     <t>한양의 상징대로 육조거리</t>
   </si>
   <si>
@@ -286,9 +187,6 @@
     <t>초등학교 4-6학년 성인</t>
   </si>
   <si>
-    <t xml:space="preserve">제 32기 고등학생 인턴제 </t>
-  </si>
-  <si>
     <t>서울풍물시장 청춘1번가</t>
   </si>
   <si>
@@ -298,42 +196,27 @@
     <t>2021 시민예술가 전시지원사업 예술일지</t>
   </si>
   <si>
-    <t xml:space="preserve">VIP석 150000원 ㅣ VIP가변석 150000원 R석 130000원 ㅣ R가변석 130000원 S석 100000원 ㅣ S가변석 100000원 A석 80000원 ㅣ A가변석 80000원 B석 60000원 ㅣ B가변석 60000원 </t>
-  </si>
-  <si>
     <t>이경주 작가와 함께하는 현대 민화</t>
   </si>
   <si>
     <t>불가불가</t>
   </si>
   <si>
-    <t>대인 (중학생이상~) 입장권 : 12000원 소인 (만 36개월~ 초등학생) 입장권 : 15000원</t>
-  </si>
-  <si>
     <t>R 90000 S 70000 A 50000 B 30000 C 10000</t>
   </si>
   <si>
     <t>Borderless Universe</t>
   </si>
   <si>
-    <t>안무가전 TANZ ARGUMENT</t>
-  </si>
-  <si>
     <t>화신백화점 사라진 종로의 랜드마크</t>
   </si>
   <si>
     <t>R석 80000원 S석 70000원</t>
   </si>
   <si>
-    <t>2022 노원 지역예술가 작품전시회</t>
-  </si>
-  <si>
     <t>R석 66000원 S석 44000</t>
   </si>
   <si>
-    <t>김상원 김지나 피아노 듀오 리사이틀</t>
-  </si>
-  <si>
     <t>비대면 주제해설 과학관QR옴니버스</t>
   </si>
   <si>
@@ -349,12 +232,6 @@
     <t>R석 40000원 A석 30000원</t>
   </si>
   <si>
-    <t>도성의 서쪽 문 헐값에 팔리다</t>
-  </si>
-  <si>
-    <t>트리오 아티스트리 제3회 정기연주회</t>
-  </si>
-  <si>
     <t>서울시립미술관 권진규탄생 100주년기념 노실의천사</t>
   </si>
   <si>
@@ -406,24 +283,12 @@
     <t>서울시민</t>
   </si>
   <si>
-    <t>모든시민</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전체 관람가 </t>
-  </si>
-  <si>
     <t>전체이용가</t>
   </si>
   <si>
     <t>중랑아트센터</t>
   </si>
   <si>
-    <t>히든플레이스</t>
-  </si>
-  <si>
-    <t>상계예술마당</t>
-  </si>
-  <si>
     <t>문화비축기지</t>
   </si>
   <si>
@@ -433,15 +298,9 @@
     <t xml:space="preserve">55000원 </t>
   </si>
   <si>
-    <t>한양도성박물관</t>
-  </si>
-  <si>
     <t>서울역사박물관</t>
   </si>
   <si>
-    <t>제한 없음</t>
-  </si>
-  <si>
     <t>서울 멋쟁이</t>
   </si>
   <si>
@@ -469,9 +328,6 @@
     <t>8세 이상</t>
   </si>
   <si>
-    <t>성수아트홀</t>
-  </si>
-  <si>
     <t>ADM 갤러리</t>
   </si>
   <si>
@@ -499,9 +355,6 @@
     <t>관람객 누구나</t>
   </si>
   <si>
-    <t>전석 2만원</t>
-  </si>
-  <si>
     <t>시민 누구나</t>
   </si>
   <si>
@@ -514,9 +367,6 @@
     <t>초등학생 가족</t>
   </si>
   <si>
-    <t>5만원 3만원</t>
-  </si>
-  <si>
     <t>전체관람가</t>
   </si>
   <si>
@@ -550,9 +400,6 @@
     <t>예술의전당</t>
   </si>
   <si>
-    <t xml:space="preserve">청소년 </t>
-  </si>
-  <si>
     <t>만 7세 이상</t>
   </si>
   <si>
@@ -562,9 +409,6 @@
     <t>기타</t>
   </si>
   <si>
-    <t>무용</t>
-  </si>
-  <si>
     <t>클래식</t>
   </si>
   <si>
@@ -598,9 +442,6 @@
     <t>누구나</t>
   </si>
   <si>
-    <t>국악</t>
-  </si>
-  <si>
     <t>DDP</t>
   </si>
   <si>
@@ -616,15 +457,9 @@
     <t>서리풀 休 갤러리 산의 비밀 김태민 개인전</t>
   </si>
   <si>
-    <t>MMCA 이건희컬렉션 특별전 한국미술명작</t>
-  </si>
-  <si>
     <t>노원문화재단 문화강좌 노원유스챔버오케스트라 수강생 모집</t>
   </si>
   <si>
-    <t>R석 70000원 S석 50000원 A석 30000원</t>
-  </si>
-  <si>
     <t>VIP석 70000원 R석 50000원 S석 30000원</t>
   </si>
   <si>
@@ -634,30 +469,15 @@
     <t xml:space="preserve"> VIP 15만원 R 13만원 S 10만원 A 7만원</t>
   </si>
   <si>
-    <t>경춘선숲길 갤러리 노원마을 미술 탐험전 00미술관 아카이빙전</t>
-  </si>
-  <si>
     <t>2022 상반기 세종예술아카데미 예술교양강좌 뽐나는 클래스</t>
   </si>
   <si>
     <t>TikTok 나래한바퀴 for Woman</t>
   </si>
   <si>
-    <t>2021년 한양도성박물관 하반기 기획전 도성의 서쪽 문 헐값에 팔리다</t>
-  </si>
-  <si>
-    <t>강병기 교수 기증유물특별전 어느 도시학자가 꿈 꾼 서울</t>
-  </si>
-  <si>
     <t>꿈마을놀이체험교실 누가누가 잘하나 우리놀이</t>
   </si>
   <si>
-    <t xml:space="preserve">코리아쿱오케스트라의 온 클래식 새봄 </t>
-  </si>
-  <si>
-    <t>서리풀청년아트갤러리 어떤 순간의 작은 픽셀</t>
-  </si>
-  <si>
     <t>서울상상나라 신규전시 뿜뿜 펀 에너지</t>
   </si>
   <si>
@@ -667,18 +487,12 @@
     <t>빛 영국 테이트미술관 특별전</t>
   </si>
   <si>
-    <t>판소리 레미제라블 구구선 사람들</t>
-  </si>
-  <si>
     <t>개관 8주년 기념전시 화가의 비망록</t>
   </si>
   <si>
     <t>SEMU YEOL LECTURE</t>
   </si>
   <si>
-    <t>크래프트 윈도우 4. 공예 온색溫色</t>
-  </si>
-  <si>
     <t>서울시립미술관 성찬경 청금루 주인</t>
   </si>
   <si>
@@ -691,9 +505,6 @@
     <t>임시정부 첫 국무위원회 경교장에서 열리다</t>
   </si>
   <si>
-    <t>뮤지컬 엑스칼리버</t>
-  </si>
-  <si>
     <t>탐방 새활용이야기</t>
   </si>
   <si>
@@ -718,9 +529,6 @@
     <t>뮤지컬 프리다 The Last Night Show</t>
   </si>
   <si>
-    <t>프랑스 국립 자연사박물관 특별전 바다미지로의탐험</t>
-  </si>
-  <si>
     <t xml:space="preserve">공공미술 시민아이디어 구현 문화비축기지 모래 시간 시민개방 </t>
   </si>
   <si>
@@ -745,9 +553,6 @@
     <t>꿈마을울림교실</t>
   </si>
   <si>
-    <t>갈산문화예술센터 개관 기념 어린이 넌버벌 공연 네네네</t>
-  </si>
-  <si>
     <t>2022년 우리 가족 박물관 여행</t>
   </si>
   <si>
@@ -766,9 +571,6 @@
     <t>뮤지컬·오페라</t>
   </si>
   <si>
-    <t>R석 55000 · S석 44000</t>
-  </si>
-  <si>
     <t>문화교양·강좌</t>
   </si>
   <si>
@@ -778,9 +580,6 @@
     <t>일반 만 24세 초과 ~ 만 65세 미만 : 15000원 · 청소년 만 12세 초과 ~ 만 24세 : 12000원 · 어린이 만 6세초과 ~ 만 12세 : 9000원 · 전시예매 : 인터파크 · 특별 할인과 무료 입장 대상자에 관한 자세한 내용은 홈페이지 참조</t>
   </si>
   <si>
-    <t>경로를 재탐색합니다 UN·LEARNING AUSTRALIA</t>
-  </si>
-  <si>
     <t>성인 20000원 · 청소년 15000원 · 어린이 13000원 등</t>
   </si>
   <si>
@@ -799,18 +598,12 @@
     <t>R석 55000원 · S석 40000원 · A석 30000원</t>
   </si>
   <si>
-    <t>성인: 5000원 (만 25세 이상 - 만 60세 미만) 청소년 및 어린이: 3000원 (만 7세 이상 - 만 25세 미만) · 무료 특별 할인에 관한 내용은 온라인 예약 홈페이지(인터파크)나 현장 발권 창구에서 확인할 수 있습니다.</t>
-  </si>
-  <si>
     <t>성인: 3000원 (만 25세 이상 - 만 60세 미만) 청소년 및 어린이: 2000원 (만 7세 이상 - 만 25세 미만) · 무료 특별 할인에 관한 내용은 온라인 예약 홈페이지(인터파크)나 현장발권 창구에서 확인할 수 있습니다.</t>
   </si>
   <si>
     <t>관 람 료: 성인 20000· 청소년 15000원· 어린이 13000원</t>
   </si>
   <si>
-    <t>일반 10000원 · 중구민 5000원</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=53e2f4268a504b8cb2e496e7555747a9&amp;thumb=Y</t>
   </si>
   <si>
@@ -847,9 +640,6 @@
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=77e1fdca64cb456fa6e4e4efaf77e736&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=af6f9985699f4f26b01d800c690d8f7a&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=f1e4568f277a4f2597c8e984ff3a8b06&amp;thumb=Y</t>
   </si>
   <si>
@@ -868,18 +658,9 @@
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=16ec177cd0574fa1b4e57f5bc7498946&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=211700604d824608b9e1ef676284d06d&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=28678a8021624229b88101322fcd62e7&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=c6486360e5b24721a76afc04e9bce82b&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=6e4bcdb40dea40e585daacf0b55ddfcf&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=6d88fcec1bdb4d70956233b04513bb17&amp;thumb=Y</t>
   </si>
   <si>
@@ -889,9 +670,6 @@
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=cff95356c24f41a0b0eb62690175f9d3&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e821749f8a7641778467d558ffaa139f&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=7db36210c0cf4b6f9a0b490fe02e663f&amp;thumb=Y</t>
   </si>
   <si>
@@ -904,12 +682,6 @@
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=ef7f0eaeb0564fb5a9930160b4cc89b8&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=6ce5b19de0394395bf445630a73b2304&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=b843330a9b8b41338e5d899e7be565b2&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=b4da9bf5104f4969879524e9570a13a4&amp;thumb=Y</t>
   </si>
   <si>
@@ -928,36 +700,12 @@
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=d386318db41b4606b934c4ce8a4ae4eb&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=bdaba5e5a27a4aae954076f726398350&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=54fbbca4f7bd4bf9921fbb61c4ec50f7&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=af21c1e53acb4355bfde8cf804e84c3c&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=3220d04e4f6c4b62b5ed02e89ace7ce9&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e7c0057bb43a4ffca8608de48f52728e&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=52c3ad9ab82a4bd6992ba0524f99f8db&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=347c30db4d2e4d1c9d0afb02cd6737cc&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=8b344606944642ceb6126918b03b960e&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=4a40f504967c4e989d571c43b6909430&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=194d3212068845bd8f438b3e5bf7a88d&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=ae2ff4fe07e344a49ba3a6f0c069c19a&amp;thumb=Y</t>
   </si>
   <si>
@@ -967,9 +715,6 @@
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=37ac364687b24b8cafee60c4dbbd699a&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=39aa2a987c144d6d8166f51f9b45c915&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=664e21afc62a43bb8a24e47f8bf44381&amp;thumb=Y</t>
   </si>
   <si>
@@ -982,9 +727,6 @@
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=5e68911f02cf4509aacdb42a4249cf7f&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=604d73fb75bf4e74b9334e0d8154b552&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=465d6772bbd74978aa8370b4e9f7f9dc&amp;thumb=Y</t>
   </si>
   <si>
@@ -994,9 +736,6 @@
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=0963daffb4d54ac7a94299fbdd01831c&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=ab495fd914d2468aa79818f8405d05bb&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=3244c05cddc4434c8b5d4d1be5747a55&amp;thumb=Y</t>
   </si>
   <si>
@@ -1024,54 +763,27 @@
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=b030bb7a9cc9473a8f1e3d525ed50a61&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=ff52847ea4b942e18ec0b7dd8f196d03&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=c022936aeddb40b7afc715b0dd76bc80&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e3ecb5d0dec34ef79d3e8af14a3ac70a&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=c9fa51b477db4374b32bfaa48c65ff88&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=18a7b06e25f1492d9b5ccb6b9b583033&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=8b72700aa88c4972bf33e215982c1d94&amp;thumb=Y</t>
   </si>
   <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=cca912d1ff9e4f588b1540b605ff4d5d&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=cb38c94980af48718cf9c84a1661446c&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=7f925c1fbc8f4b9dbb47e910b2cfca0e&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=f66eedef3657487484282670b81c9836&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=d57ff34e3b2743529b24c42cf9846378&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=4abaf4ee155340f7b30a267f8c2c2fb2&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=a0e62f4f5d6346d5b305bbfa868f45c7&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=6f8f2794fb7c4bbfa8e4aff25d63b326&amp;thumb=Y</t>
   </si>
   <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=e703eba4f4f24d7d8c4f6e6daa12659f&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=5045ab2fb3264d468f7b4c4d0b67d9b2&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=d5a69617ce994d88a6ddefd3bc27f7ea&amp;thumb=Y</t>
   </si>
   <si>
@@ -1084,44 +796,16 @@
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=20a22d1ab43e458b9de77b8bebeadce8&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=43f9ce6848df4dfe924fd6710d161dca&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=657b72e1e8e94ad4ac769217d23a2d63&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=946851cdace141ebb0dcdbcdd0078b0c&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=3eaedbf9c8d74a458387872345b23694&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=8b1dc74204994ecda5dfc17753bc4fc4&amp;thumb=Y</t>
   </si>
   <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=b45759fb82ef4788b1ca96b3e92ba118&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=bc2d54bd7cda47f7a170ec02942681ca&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=05fe082236a84491a8fc9d0b6b95e6fb&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=0486dfd544ba4788b5817e1e201c0ae4&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=1fa2bced222f48ee95dd0ca22f7053cc&amp;thumb=Y</t>
-  </si>
-  <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=875cc054457c451b957d2d6dc6ad7076&amp;thumb=Y</t>
   </si>
   <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=78fff005fcc84adf8c285e364c41705a&amp;thumb=Y</t>
-  </si>
-  <si>
-    <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=1e0a1c8144354f54b2149ac63e3a732d&amp;thumb=Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://culture.seoul.go.kr/cmmn/file/getImage.do?atchFileId=a4f60226c52249b18ab6d2c7c4f9a047&amp;thumb=Y</t>
@@ -1136,10 +820,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김남중 비올라 독주회 활이 춤춘다 VI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마믅소리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1153,14 +833,6 @@
   </si>
   <si>
     <t>2022 봄에 내리는 젠틀레인 재즈로 듣는 로맨틱 팝 n 가요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별초청공연 제주도립무용단 녹담</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXHIBITION Four Stories</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1716,11 +1388,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I108"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A108"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1734,31 +1406,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1766,253 +1438,255 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="F2" s="4">
         <v>44623</v>
       </c>
       <c r="G2" s="4">
-        <v>44623</v>
+        <v>44636</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>335</v>
+        <v>198</v>
       </c>
       <c r="F3" s="4">
-        <v>44624</v>
+        <v>44581</v>
       </c>
       <c r="G3" s="4">
-        <v>44624</v>
+        <v>44637</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="F4" s="4">
-        <v>44614</v>
+        <v>44628</v>
       </c>
       <c r="G4" s="4">
-        <v>44625</v>
+        <v>44637</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>325</v>
+        <v>228</v>
       </c>
       <c r="F5" s="4">
-        <v>44600</v>
+        <v>44614</v>
       </c>
       <c r="G5" s="4">
-        <v>44625</v>
+        <v>44637</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="F6" s="4">
-        <v>44604</v>
+        <v>44637</v>
       </c>
       <c r="G6" s="4">
-        <v>44625</v>
+        <v>44637</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>183</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>358</v>
+        <v>91</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="F7" s="4">
-        <v>44625</v>
+        <v>44639</v>
       </c>
       <c r="G7" s="4">
-        <v>44625</v>
+        <v>44639</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>360</v>
+        <v>199</v>
       </c>
       <c r="F8" s="4">
-        <v>44625</v>
+        <v>44639</v>
       </c>
       <c r="G8" s="4">
-        <v>44625</v>
+        <v>44639</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="F9" s="4">
-        <v>44544</v>
+        <v>44639</v>
       </c>
       <c r="G9" s="4">
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="F10" s="4">
         <v>44625</v>
       </c>
       <c r="G10" s="4">
-        <v>44626</v>
+        <v>44640</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2020,25 +1694,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="F11" s="4">
-        <v>44509</v>
+        <v>44527</v>
       </c>
       <c r="G11" s="4">
-        <v>44626</v>
+        <v>44640</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>196</v>
+        <v>121</v>
+      </c>
+      <c r="I11" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2046,81 +1723,86 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>209</v>
+        <v>185</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>304</v>
+        <v>220</v>
       </c>
       <c r="F12" s="4">
-        <v>44498</v>
+        <v>44610</v>
       </c>
       <c r="G12" s="4">
-        <v>44626</v>
+        <v>44640</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>312</v>
+        <v>226</v>
       </c>
       <c r="F13" s="4">
-        <v>44509</v>
+        <v>44569</v>
       </c>
       <c r="G13" s="4">
-        <v>44626</v>
+        <v>44640</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>342</v>
+        <v>252</v>
       </c>
       <c r="F14" s="4">
-        <v>44626</v>
+        <v>44640</v>
       </c>
       <c r="G14" s="4">
-        <v>44626</v>
+        <v>44640</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2128,28 +1810,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>343</v>
+        <v>257</v>
       </c>
       <c r="F15" s="4">
-        <v>44626</v>
+        <v>44551</v>
       </c>
       <c r="G15" s="4">
-        <v>44626</v>
+        <v>44640</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
+        <v>106</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2157,115 +1839,110 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="F16" s="4">
-        <v>44537</v>
+        <v>44400</v>
       </c>
       <c r="G16" s="4">
-        <v>44626</v>
+        <v>44640</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>363</v>
+        <v>250</v>
       </c>
       <c r="F17" s="4">
-        <v>44464</v>
+        <v>44642</v>
       </c>
       <c r="G17" s="4">
-        <v>44626</v>
+        <v>44642</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>309</v>
+        <v>89</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="F18" s="4">
-        <v>44628</v>
+        <v>44623</v>
       </c>
       <c r="G18" s="4">
-        <v>44628</v>
+        <v>44644</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="F19" s="4">
-        <v>44628</v>
+        <v>44623</v>
       </c>
       <c r="G19" s="4">
-        <v>44628</v>
+        <v>44644</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I19" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2273,115 +1950,108 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>337</v>
+        <v>238</v>
       </c>
       <c r="F20" s="4">
-        <v>44629</v>
+        <v>44588</v>
       </c>
       <c r="G20" s="4">
-        <v>44629</v>
+        <v>44645</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>355</v>
+        <v>210</v>
       </c>
       <c r="F21" s="4">
-        <v>44629</v>
+        <v>44625</v>
       </c>
       <c r="G21" s="4">
-        <v>44629</v>
+        <v>44646</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>371</v>
+        <v>184</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="F22" s="4">
-        <v>44630</v>
+        <v>44625</v>
       </c>
       <c r="G22" s="4">
-        <v>44630</v>
+        <v>44646</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" t="s">
-        <v>201</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>41</v>
+        <v>185</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>344</v>
+        <v>11</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="F23" s="4">
-        <v>44631</v>
+        <v>44628</v>
       </c>
       <c r="G23" s="4">
-        <v>44631</v>
+        <v>44647</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>37</v>
+        <v>87</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -2389,28 +2059,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>362</v>
+        <v>205</v>
       </c>
       <c r="F24" s="4">
-        <v>44630</v>
+        <v>44547</v>
       </c>
       <c r="G24" s="4">
-        <v>44631</v>
+        <v>44647</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" t="s">
-        <v>17</v>
+        <v>112</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -2418,226 +2088,216 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="F25" s="4">
-        <v>44632</v>
+        <v>44519</v>
       </c>
       <c r="G25" s="4">
-        <v>44632</v>
+        <v>44647</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>339</v>
+        <v>261</v>
       </c>
       <c r="F26" s="4">
-        <v>44631</v>
+        <v>44516</v>
       </c>
       <c r="G26" s="4">
-        <v>44632</v>
+        <v>44647</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>346</v>
+        <v>202</v>
       </c>
       <c r="F27" s="4">
-        <v>44611</v>
+        <v>44650</v>
       </c>
       <c r="G27" s="4">
-        <v>44632</v>
+        <v>44650</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>376</v>
+        <v>129</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>361</v>
+        <v>203</v>
       </c>
       <c r="F28" s="4">
-        <v>44632</v>
+        <v>44650</v>
       </c>
       <c r="G28" s="4">
-        <v>44632</v>
+        <v>44650</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I28" t="s">
-        <v>39</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>367</v>
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="F29" s="4">
-        <v>44631</v>
+        <v>44551</v>
       </c>
       <c r="G29" s="4">
-        <v>44633</v>
+        <v>44650</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>377</v>
+        <v>134</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="F30" s="4">
-        <v>44624</v>
+        <v>44650</v>
       </c>
       <c r="G30" s="4">
-        <v>44633</v>
+        <v>44650</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="I30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="F31" s="4">
-        <v>44398</v>
+        <v>44621</v>
       </c>
       <c r="G31" s="4">
-        <v>44633</v>
+        <v>44651</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>303</v>
+        <v>234</v>
       </c>
       <c r="F32" s="4">
-        <v>44632</v>
+        <v>44596</v>
       </c>
       <c r="G32" s="4">
-        <v>44633</v>
+        <v>44651</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>160</v>
+        <v>55</v>
+      </c>
+      <c r="I32" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -2645,54 +2305,55 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="F33" s="4">
-        <v>44617</v>
+        <v>44602</v>
       </c>
       <c r="G33" s="4">
-        <v>44633</v>
+        <v>44651</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>224</v>
+        <v>72</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="F34" s="4">
-        <v>44590</v>
+        <v>44651</v>
       </c>
       <c r="G34" s="4">
-        <v>44633</v>
+        <v>44652</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2700,113 +2361,115 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>321</v>
+        <v>223</v>
       </c>
       <c r="F35" s="4">
-        <v>44633</v>
+        <v>44630</v>
       </c>
       <c r="G35" s="4">
-        <v>44633</v>
+        <v>44658</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="I35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>356</v>
+        <v>236</v>
       </c>
       <c r="F36" s="4">
-        <v>44590</v>
+        <v>44658</v>
       </c>
       <c r="G36" s="4">
-        <v>44633</v>
+        <v>44658</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I36" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="I36" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="F37" s="4">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="G37" s="4">
-        <v>44635</v>
+        <v>44659</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="I37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="F38" s="4">
-        <v>44623</v>
+        <v>44646</v>
       </c>
       <c r="G38" s="4">
-        <v>44636</v>
+        <v>44661</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I38" t="s">
-        <v>183</v>
+        <v>74</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2814,142 +2477,140 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F39" s="4">
-        <v>44581</v>
+        <v>44540</v>
       </c>
       <c r="G39" s="4">
-        <v>44637</v>
+        <v>44661</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>221</v>
+        <v>62</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="F40" s="4">
-        <v>44628</v>
+        <v>44637</v>
       </c>
       <c r="G40" s="4">
-        <v>44637</v>
+        <v>44665</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I40" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>200</v>
+        <v>185</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="F41" s="4">
-        <v>44614</v>
+        <v>44561</v>
       </c>
       <c r="G41" s="4">
-        <v>44637</v>
+        <v>44668</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="I41" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>357</v>
+        <v>253</v>
       </c>
       <c r="F42" s="4">
-        <v>44637</v>
+        <v>44600</v>
       </c>
       <c r="G42" s="4">
-        <v>44637</v>
+        <v>44668</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>373</v>
+        <v>269</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>264</v>
+        <v>113</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="F43" s="4">
-        <v>44639</v>
+        <v>44674</v>
       </c>
       <c r="G43" s="4">
-        <v>44639</v>
+        <v>44674</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>137</v>
+        <v>102</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2957,112 +2618,111 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>268</v>
+        <v>138</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="F44" s="4">
-        <v>44639</v>
+        <v>44533</v>
       </c>
       <c r="G44" s="4">
-        <v>44639</v>
+        <v>44675</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="I44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>359</v>
+        <v>212</v>
       </c>
       <c r="F45" s="4">
-        <v>44639</v>
+        <v>44649</v>
       </c>
       <c r="G45" s="4">
-        <v>44639</v>
+        <v>44678</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="F46" s="4">
-        <v>44625</v>
+        <v>44607</v>
       </c>
       <c r="G46" s="4">
-        <v>44640</v>
+        <v>44680</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="F47" s="4">
-        <v>44527</v>
+        <v>44523</v>
       </c>
       <c r="G47" s="4">
-        <v>44640</v>
+        <v>44681</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I47" t="s">
-        <v>254</v>
+        <v>88</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -3070,28 +2730,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>374</v>
+        <v>185</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="F48" s="4">
-        <v>44610</v>
+        <v>44551</v>
       </c>
       <c r="G48" s="4">
-        <v>44640</v>
+        <v>44689</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I48" t="s">
-        <v>63</v>
+        <v>97</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -3099,335 +2759,328 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="F49" s="4">
-        <v>44569</v>
+        <v>44551</v>
       </c>
       <c r="G49" s="4">
-        <v>44640</v>
+        <v>44689</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>202</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>345</v>
+        <v>249</v>
       </c>
       <c r="F50" s="4">
-        <v>44640</v>
+        <v>44600</v>
       </c>
       <c r="G50" s="4">
-        <v>44640</v>
+        <v>44701</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="F51" s="4">
-        <v>44551</v>
+        <v>44644</v>
       </c>
       <c r="G51" s="4">
-        <v>44640</v>
+        <v>44703</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>366</v>
+        <v>232</v>
       </c>
       <c r="F52" s="4">
-        <v>44400</v>
+        <v>44621</v>
       </c>
       <c r="G52" s="4">
-        <v>44640</v>
+        <v>44710</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I52" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="I52" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="F53" s="4">
-        <v>44642</v>
+        <v>44644</v>
       </c>
       <c r="G53" s="4">
-        <v>44642</v>
+        <v>44710</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>368</v>
+        <v>85</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="F54" s="4">
-        <v>44623</v>
+        <v>44639</v>
       </c>
       <c r="G54" s="4">
-        <v>44644</v>
+        <v>44716</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
       <c r="F55" s="4">
-        <v>44623</v>
+        <v>44634</v>
       </c>
       <c r="G55" s="4">
-        <v>44644</v>
+        <v>44721</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="I55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>324</v>
+        <v>93</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="F56" s="4">
-        <v>44588</v>
+        <v>44613</v>
       </c>
       <c r="G56" s="4">
-        <v>44645</v>
+        <v>44722</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="F57" s="4">
         <v>44625</v>
       </c>
       <c r="G57" s="4">
-        <v>44646</v>
+        <v>44723</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I57" s="3"/>
+        <v>115</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="F58" s="4">
-        <v>44625</v>
+        <v>44474</v>
       </c>
       <c r="G58" s="4">
-        <v>44646</v>
+        <v>44731</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>372</v>
+        <v>183</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>370</v>
+        <v>84</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="F59" s="4">
-        <v>44628</v>
+        <v>44652</v>
       </c>
       <c r="G59" s="4">
-        <v>44647</v>
+        <v>44738</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="F60" s="4">
-        <v>44547</v>
+        <v>44647</v>
       </c>
       <c r="G60" s="4">
-        <v>44647</v>
+        <v>44738</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>195</v>
+        <v>75</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -3435,52 +3088,55 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>326</v>
+        <v>200</v>
       </c>
       <c r="F61" s="4">
-        <v>44519</v>
+        <v>44565</v>
       </c>
       <c r="G61" s="4">
-        <v>44647</v>
+        <v>44742</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="E62" s="3" t="s">
-        <v>365</v>
+        <v>240</v>
       </c>
       <c r="F62" s="4">
-        <v>44516</v>
+        <v>44600</v>
       </c>
       <c r="G62" s="4">
-        <v>44647</v>
+        <v>44742</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>196</v>
+        <v>8</v>
+      </c>
+      <c r="I62" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -3488,219 +3144,225 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="F63" s="4">
-        <v>44650</v>
+        <v>44481</v>
       </c>
       <c r="G63" s="4">
-        <v>44650</v>
+        <v>44801</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I63" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="D64" s="3" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F64" s="4">
-        <v>44650</v>
+        <v>44621</v>
       </c>
       <c r="G64" s="4">
-        <v>44650</v>
+        <v>44801</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I64" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="F65" s="4">
-        <v>44551</v>
+        <v>44559</v>
       </c>
       <c r="G65" s="4">
-        <v>44650</v>
+        <v>44836</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>301</v>
+        <v>224</v>
       </c>
       <c r="F66" s="4">
-        <v>44650</v>
+        <v>44512</v>
       </c>
       <c r="G66" s="4">
-        <v>44650</v>
+        <v>44865</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>225</v>
+        <v>9</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="F67" s="4">
-        <v>44621</v>
+        <v>44562</v>
       </c>
       <c r="G67" s="4">
-        <v>44651</v>
+        <v>44916</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>173</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="F68" s="4">
-        <v>44596</v>
+        <v>44498</v>
       </c>
       <c r="G68" s="4">
-        <v>44651</v>
+        <v>44926</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I68" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>336</v>
+        <v>245</v>
       </c>
       <c r="F69" s="4">
-        <v>44602</v>
+        <v>44562</v>
       </c>
       <c r="G69" s="4">
-        <v>44651</v>
+        <v>44926</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="F70" s="4">
-        <v>44651</v>
+        <v>44562</v>
       </c>
       <c r="G70" s="4">
-        <v>44652</v>
+        <v>44926</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>97</v>
+        <v>125</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -3708,28 +3370,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="F71" s="4">
-        <v>44630</v>
+        <v>44337</v>
       </c>
       <c r="G71" s="4">
-        <v>44658</v>
+        <v>45291</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I71" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -3737,1035 +3396,34 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>322</v>
+        <v>227</v>
       </c>
       <c r="F72" s="4">
-        <v>44658</v>
+        <v>44524</v>
       </c>
       <c r="G72" s="4">
-        <v>44658</v>
+        <v>45619</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I72" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
-        <v>72</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F73" s="4">
-        <v>44631</v>
-      </c>
-      <c r="G73" s="4">
-        <v>44659</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I73" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
-        <v>73</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F74" s="4">
-        <v>44646</v>
-      </c>
-      <c r="G74" s="4">
-        <v>44661</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
-        <v>74</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F75" s="4">
-        <v>44540</v>
-      </c>
-      <c r="G75" s="4">
-        <v>44661</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
-        <v>75</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F76" s="4">
-        <v>44637</v>
-      </c>
-      <c r="G76" s="4">
-        <v>44665</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
-        <v>76</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F77" s="4">
-        <v>44600</v>
-      </c>
-      <c r="G77" s="4">
-        <v>44668</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
-        <v>77</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F78" s="4">
-        <v>44561</v>
-      </c>
-      <c r="G78" s="4">
-        <v>44668</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I78" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
-        <v>78</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F79" s="4">
-        <v>44674</v>
-      </c>
-      <c r="G79" s="4">
-        <v>44674</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
-        <v>79</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F80" s="4">
-        <v>44533</v>
-      </c>
-      <c r="G80" s="4">
-        <v>44675</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="I80" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
-        <v>80</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F81" s="4">
-        <v>44649</v>
-      </c>
-      <c r="G81" s="4">
-        <v>44678</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
-        <v>81</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F82" s="4">
-        <v>44607</v>
-      </c>
-      <c r="G82" s="4">
-        <v>44680</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
-        <v>82</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F83" s="4">
-        <v>44523</v>
-      </c>
-      <c r="G83" s="4">
-        <v>44681</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
-        <v>83</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F84" s="4">
-        <v>44551</v>
-      </c>
-      <c r="G84" s="4">
-        <v>44689</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
-        <v>84</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F85" s="4">
-        <v>44551</v>
-      </c>
-      <c r="G85" s="4">
-        <v>44689</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
-        <v>85</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F86" s="4">
-        <v>44600</v>
-      </c>
-      <c r="G86" s="4">
-        <v>44701</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
-        <v>86</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F87" s="4">
-        <v>44644</v>
-      </c>
-      <c r="G87" s="4">
-        <v>44703</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
-        <v>87</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F88" s="4">
-        <v>44621</v>
-      </c>
-      <c r="G88" s="4">
-        <v>44710</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
-        <v>88</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F89" s="4">
-        <v>44644</v>
-      </c>
-      <c r="G89" s="4">
-        <v>44710</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
-        <v>89</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F90" s="4">
-        <v>44639</v>
-      </c>
-      <c r="G90" s="4">
-        <v>44716</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
-        <v>90</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F91" s="4">
-        <v>44634</v>
-      </c>
-      <c r="G91" s="4">
-        <v>44721</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I91" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
-        <v>91</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="F92" s="4">
-        <v>44613</v>
-      </c>
-      <c r="G92" s="4">
-        <v>44722</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
-        <v>92</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F93" s="4">
-        <v>44625</v>
-      </c>
-      <c r="G93" s="4">
-        <v>44723</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
-        <v>93</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F94" s="4">
-        <v>44474</v>
-      </c>
-      <c r="G94" s="4">
-        <v>44731</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
-        <v>94</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F95" s="4">
-        <v>44652</v>
-      </c>
-      <c r="G95" s="4">
-        <v>44738</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
-        <v>95</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F96" s="4">
-        <v>44647</v>
-      </c>
-      <c r="G96" s="4">
-        <v>44738</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
-        <v>96</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F97" s="4">
-        <v>44565</v>
-      </c>
-      <c r="G97" s="4">
-        <v>44742</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
-        <v>97</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="F98" s="4">
-        <v>44600</v>
-      </c>
-      <c r="G98" s="4">
-        <v>44742</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I98" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
-        <v>98</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F99" s="4">
-        <v>44481</v>
-      </c>
-      <c r="G99" s="4">
-        <v>44801</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
-        <v>99</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F100" s="4">
-        <v>44621</v>
-      </c>
-      <c r="G100" s="4">
-        <v>44801</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I100" s="3"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
-        <v>100</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F101" s="4">
-        <v>44559</v>
-      </c>
-      <c r="G101" s="4">
-        <v>44836</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
-        <v>101</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F102" s="4">
-        <v>44512</v>
-      </c>
-      <c r="G102" s="4">
-        <v>44865</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I102" s="3"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
-        <v>102</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F103" s="4">
-        <v>44562</v>
-      </c>
-      <c r="G103" s="4">
-        <v>44916</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I103" s="3"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
-        <v>103</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F104" s="4">
-        <v>44498</v>
-      </c>
-      <c r="G104" s="4">
-        <v>44926</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
-        <v>104</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F105" s="4">
-        <v>44562</v>
-      </c>
-      <c r="G105" s="4">
-        <v>44926</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
-        <v>105</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F106" s="4">
-        <v>44562</v>
-      </c>
-      <c r="G106" s="4">
-        <v>44926</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
-        <v>106</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F107" s="4">
-        <v>44337</v>
-      </c>
-      <c r="G107" s="4">
-        <v>45291</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
-        <v>107</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F108" s="4">
-        <v>44524</v>
-      </c>
-      <c r="G108" s="4">
-        <v>45619</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I108">
+  <autoFilter ref="A1:I72">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="전시·미술"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:I108">
       <sortCondition ref="G1:G108"/>
     </sortState>
@@ -4775,14 +3433,13 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E43" r:id="rId1" display="https://culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=53e2f4268a504b8cb2e496e7555747a9&amp;thumb=Y"/>
-    <hyperlink ref="E80" r:id="rId2" display="https://culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e16befa6396b4fa39617e1861db1f9d8&amp;thumb=Y"/>
-    <hyperlink ref="E29" r:id="rId3"/>
-    <hyperlink ref="E54" r:id="rId4"/>
-    <hyperlink ref="E92" r:id="rId5"/>
-    <hyperlink ref="E59" r:id="rId6"/>
+    <hyperlink ref="E7" r:id="rId1" display="https://culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=53e2f4268a504b8cb2e496e7555747a9&amp;thumb=Y"/>
+    <hyperlink ref="E44" r:id="rId2" display="https://culture.seoul.go.kr·cmmn·file·getImage.do?atchFileId=e16befa6396b4fa39617e1861db1f9d8&amp;thumb=Y"/>
+    <hyperlink ref="E18" r:id="rId3"/>
+    <hyperlink ref="E56" r:id="rId4"/>
+    <hyperlink ref="E23" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>